--- a/dados.xlsx
+++ b/dados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="220">
   <si>
     <t>Índice</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Classificação</t>
   </si>
   <si>
-    <t>Texto</t>
+    <t>Sugestão</t>
   </si>
   <si>
     <t>2024-06</t>
@@ -636,589 +636,40 @@
     <t>Receita</t>
   </si>
   <si>
-    <t>Revisão Manual</t>
-  </si>
-  <si>
-    <t>Muai Thay</t>
+    <t>Onibus</t>
+  </si>
+  <si>
+    <t>Viajem</t>
+  </si>
+  <si>
+    <t>Maui Thay</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Avião</t>
   </si>
   <si>
     <t>Roupas</t>
   </si>
   <si>
+    <t>Perfume</t>
+  </si>
+  <si>
+    <t>Utrnsílios</t>
+  </si>
+  <si>
+    <t>Lanche</t>
+  </si>
+  <si>
     <t>Streaming</t>
   </si>
   <si>
-    <t>Wemobi - Parcela 3/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Bikeprosports - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Clicktrip*Clicktrip - Parcela 1/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Latam Airlin*Nomyxq018 - Parcela 4/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Jucilene da Silva - Parcela 2/6 Muai Thay</t>
-  </si>
-  <si>
-    <t>Amazon Marketplace - Parcela 4/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Wemobi - Parcela 2/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Wemobi - Mobilidade e - Parcela 3/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pag Eucatur*Eucatur - Parcela 3/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Gol Linhas A*Mysxqi010 - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pagamento recebido Sem Classificação</t>
-  </si>
-  <si>
-    <t>Via Brasil Continente - Parcela 1/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Decathlon Floripa Cont Roupas</t>
-  </si>
-  <si>
-    <t>Hna*Oboticario - Parcela 1/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Mercadolivre*Mercadol - Parcela 1/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Saldo restante da fatura anterior Sem Classificação</t>
-  </si>
-  <si>
-    <t>Decathlon Paulista - Parcela 1/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Google Storage Sem Classificação</t>
-  </si>
-  <si>
-    <t>Netflix Entretenimento Streaming</t>
-  </si>
-  <si>
-    <t>Dm*Helpmaxcom Streaming</t>
-  </si>
-  <si>
-    <t>Pagamento de boleto efetuado - FUNDACAO CELESC DE SEGURIDADE SOCIAL Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência recebida pelo Pix - RODRIK J S M ARAUJO SOUSA - •••.204.832-•• - BCO DO BRASIL S.A. (0001) Agência: 2290 Conta: 76490-6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência recebida pelo Pix - ROZANI ELIZABET SCHAU MENEZES - •••.976.190-•• - ITAÚ UNIBANCO S.A. (0341) Agência: 4730 Conta: 14906-1 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pagamento de fatura Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Roodger Nathanael Schau Menezes Araujo de Sousa - •••.204.912-•• - Nubank (0260) Agência: 1 Conta: 33833840-6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Solimar Pereira dos Santos de Arruda Pinto - •••.656.441-•• - BCO SANTANDER (BRASIL) S.A. (0033) Agência: 3131 Conta: 2011547-4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Diandra Brasil - •••.339.669-•• - NU PAGAMENTOS - IP (0260) Agência: 1 Conta: 1354143-2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Camila Pizzetti Dal Toe - •••.804.129-•• - CAIXA ECONOMICA FEDERAL (0104) Agência: 1011 Conta: 3701000000590663719-9 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Celina Selister Martins - •••.045.580-•• - Nubank (0260) Agência: 1 Conta: 71403468-4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência Recebida - Caroline Ferreira Roberto - •••.574.268-•• - NU PAGAMENTOS - IP (0260) Agência: 1 Conta: 8831014-4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Resgate RDB Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Dunas Burguer Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Shopee - 38.372.267/0001-82 - ADYEN DO BRASIL IP LTDA. Agência: 1 Conta: 100000037-5 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Mokka Emporium Sem Classificação</t>
-  </si>
-  <si>
-    <t>Hna*Oboticario - Parcela 2/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Jucilene da Silva - Parcela 3/6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Mercadolivre*Mercadol - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Decathlon Paulista - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Via Brasil Continente - Parcela 2/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Clicktrip*Clicktrip - Parcela 2/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pag*Principiaes Sem Classificação</t>
-  </si>
-  <si>
-    <t>Aliexpress - Parcela 1/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Raia3429 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Dunas Burguer Sem Classificação</t>
-  </si>
-  <si>
-    <t>Mba Usp Esalq Sem Classificação</t>
-  </si>
-  <si>
-    <t>Hna*Oboticario - Parcela 1/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Itaguacu Administrado Sem Classificação</t>
-  </si>
-  <si>
-    <t>Niko Sushi Bar Sem Classificação</t>
-  </si>
-  <si>
-    <t>Estrela Poke Sushi Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pag*Pensanoevento Sem Classificação</t>
-  </si>
-  <si>
-    <t>Kibelandia Sem Classificação</t>
-  </si>
-  <si>
-    <t>Merci Downtown Sem Classificação</t>
-  </si>
-  <si>
-    <t>Boteco Sem Classificação</t>
-  </si>
-  <si>
-    <t>Estorno de "Pag*Pensanoevento" Sem Classificação</t>
-  </si>
-  <si>
-    <t>Restaurante Antenas Sem Classificação</t>
-  </si>
-  <si>
-    <t>Netflix.Com Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pag*Parrilenha Sem Classificação</t>
-  </si>
-  <si>
-    <t>Meu Jardim Food Park Sem Classificação</t>
-  </si>
-  <si>
-    <t>Dm*Helpmaxcom Sem Classificação</t>
-  </si>
-  <si>
-    <t>Ebn *Sonyplaystatn Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pagamento de boleto efetuado - EMPRESA DE PESQUISA ENERGETICA - EPE / 8  Con Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Don Floripa Food And A Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Smart Consultoria Sem Classificação</t>
-  </si>
-  <si>
-    <t>Aplicação - Tesouro IPCA+ 2029 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - ROZANI ELIZABET SCHAU MENEZES - •••.976.190-•• - ITAÚ UNIBANCO S.A. (0341) Agência: 4730 Conta: 14906-1 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Ana Paula Klaumann - •••.959.609-•• - BCO DO BRASIL S.A. (0001) Agência: 1453 Conta: 60976-5 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Aplicação RDB Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Raia3429 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Continente Park Sao Jo Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Swell Poke Sj Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Chq Floripa Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Continente Shopping Es Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Mu Msj Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Uma Origem Cafe Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Uncle Joes Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Restaurante Vo Maneca Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Pag*Ronivondeoliveira Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Ppn Comercio Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Pag*Pasteisdabarra Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Tamar Sul Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Pag*Patriciaberta Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - ANDRESSA RAMOS SIQUEIRA SILVA - •••.209.918-•• - BCO DO BRASIL S.A. (0001) Agência: 1453 Conta: 86145-6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Barbeariarany Sem Classificação</t>
-  </si>
-  <si>
-    <t>Clicktrip*Clicktrip - Parcela 3/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Hna*Oboticario - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Via Brasil Continente - Parcela 3/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Panvel Farmacias Sem Classificação</t>
-  </si>
-  <si>
-    <t>Jucilene da Silva - Parcela 4/6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Hna*Oboticario - Parcela 3/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Aliexpress - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pg *Ton Very Pizza Sem Classificação</t>
-  </si>
-  <si>
-    <t>Mp *Ingressos690 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Silva Kosinski Pizzar Sem Classificação</t>
-  </si>
-  <si>
-    <t>Wemobi - Parcela 1/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pag*Alamirritamaria Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pag*Kebabfaruk Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pit Floripa Smoked Hou Sem Classificação</t>
-  </si>
-  <si>
-    <t>Google One Sem Classificação</t>
-  </si>
-  <si>
-    <t>Spitfire Pizza Lagoa Sem Classificação</t>
-  </si>
-  <si>
-    <t>Liffey Sem Classificação</t>
-  </si>
-  <si>
-    <t>Tamar Sul Sem Classificação</t>
-  </si>
-  <si>
-    <t>Cafe Pacai Sem Classificação</t>
-  </si>
-  <si>
-    <t>App*Barbeariaon1210 - Parcela 1/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Pag*Welovesushi Sem Classificação</t>
-  </si>
-  <si>
-    <t>Azul We*Vhuqvssousa - Parcela 1/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Spitfire Pizza Lagoa Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - 46193392 Lucas Merino Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Floripao Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Zp*Ifoodqushdoc8565b0 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - O Tao Delivery Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Consagrado Burger Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Carolina da Cruz Carneiro - •••.890.392-•• - BANCO INTER (0077) Agência: 1 Conta: 6800727-2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Aplicação - Tesouro Selic 2029 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Ghazalarabianfood Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Nefasta Cervejaria Art Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Multipark Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Posto Brasol Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Chilli Willy Cozinha M Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Snack Bar Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Multipark Assembleia Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Logbank*Cervejaria Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Hello Donuts Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Pagarme Pagamentos SA - 18.727.053/0001-74 - STONE IP S.A. (0197) Agência: 1 Conta: 16714636-4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Mcandomilfarias Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Bertol Craft Beer Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Posto Vila Rica Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Vitamar Comercio de C Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Cb Florianopolis Comer Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Funcional Suplemento Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Merci Downtown Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Mana Poke Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Gaafer Chocolateria Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Somacoworking Sem Classificação</t>
-  </si>
-  <si>
-    <t>App*Barbeariaon1210 - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Jucilene da Silva - Parcela 5/6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Clicktrip*Clicktrip - Parcela 4/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Wemobi - Parcela 2/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Azul We*Vhuqvssousa - Parcela 2/4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Amazon - Parcela 1/3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Uber *Uber *Trip Sem Classificação</t>
-  </si>
-  <si>
-    <t>Hai Poke Sem Classificação</t>
-  </si>
-  <si>
-    <t>Mp *Gamplay Sem Classificação</t>
-  </si>
-  <si>
-    <t>Gelatony Sem Classificação</t>
-  </si>
-  <si>
-    <t>Ifd*Bdg Delivery de Al Sem Classificação</t>
-  </si>
-  <si>
-    <t>Shopee *Jrbeleza Sem Classificação</t>
-  </si>
-  <si>
-    <t>Wemobi - Mobilidade e - Parcela 1/2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Brukar Oficina Sem Classificação</t>
-  </si>
-  <si>
-    <t>Netflix Entretenimento Sem Classificação</t>
-  </si>
-  <si>
-    <t>Natura Pay*Atn - B3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Lupi Comercio de Alime Sem Classificação</t>
-  </si>
-  <si>
-    <t>Gelateria Freddo Sem Classificação</t>
-  </si>
-  <si>
-    <t>Estimada Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Abdelazizbahsain Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - 53257497 Marceli Marqu Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Niko Sushi Bar Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência recebida pelo Pix - RODRIGO FERNANDO OLIVEIRA CABECA NEVES - •••.416.542-•• - BCO BRADESCO S.A. (0237) Agência: 2398 Conta: 20884-1 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Koxixos Beer Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Mp *Mrsmoketabaca Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Komtodos Restaurante Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Milium Loja Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Subway Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Bulebarcafe Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Suru Bar Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - JAIRO CORTES FERREIRA - •••.476.297-•• - PICPAY (0380) Agência: 1 Conta: 89129718-9 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Mane Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Triba'S Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Toca da Lapa Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Toca da Lapa Bar Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Mp *Keity Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Caroline Ferreira Roberto - •••.574.268-•• - NU PAGAMENTOS - IP (0260) Agência: 1 Conta: 8831014-4 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Auttar Loja Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Casa das Iguarias Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Imperio Tres Comercio Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Rodrik Jose Schau Menezes Araujo de Sousa - •••.204.832-•• - BANCO BTG PACTUAL S.A. (0208) Agência: 1 Conta: 257923-3 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Supermercados Angeloni Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada - RODRIK JOSE SCHAU MENEZES ARAUJO DE SOUSA - •••.204.832-•• - XP Investimentos Corretora de Câmbio Títulos e Valores Mobiliários S.A. (0102) Agência: 2 Conta: 272575-9 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Antonio Marcos Machado - •••.647.269-•• - BCO DO BRASIL S.A. (0001) Agência: 1453 Conta: 50252-9 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Leonardo Camargo Momm - •••.465.239-•• - BCO DO BRASIL S.A. (0001) Agência: 5201 Conta: 1586753-6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - Rohannah Ster Schau Menezes Araújo de Sousa - •••.205.052-•• - Nubank (0260) Agência: 1 Conta: 9128823-6 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Hpl2alimentosltda Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Super Imperatriz Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Poke Flow Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Posto Capoeiras Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - COMMERCEGATE BRASIL PAGAMENTOS E TECNOLOGIA - 45.651.293/0001-05 - IUGU IP S.A. (0401) Agência: 2 Conta: 220778-2 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - EMERSON EDSON DOS SANTOS DE AZEVEDO - •••.832.579-•• - BCO C6 S.A. (0336) Agência: 1 Conta: 18719897-7 Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Berlinf*Parada do Japo Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Wfphones Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Rodosnack Petropen Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Zp*Restaurante Serra D Sem Classificação</t>
-  </si>
-  <si>
-    <t>Compra no débito - Camilleferreira Sem Classificação</t>
-  </si>
-  <si>
-    <t>Transferência enviada pelo Pix - SIM.DIGITAL - 29.911.764/0001-10 - CCLA MAXI ALFA Agência: 3069 Conta: 175502-1 Sem Classificação</t>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>Invesimento</t>
   </si>
   <si>
     <t>Frequência</t>
@@ -1649,8 +1100,8 @@
       <c r="H2" t="s">
         <v>206</v>
       </c>
-      <c r="I2" t="s">
-        <v>210</v>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1678,8 +1129,8 @@
       <c r="H3" t="s">
         <v>206</v>
       </c>
-      <c r="I3" t="s">
-        <v>211</v>
+      <c r="I3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1705,10 +1156,10 @@
         <v>71.72</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
-      </c>
-      <c r="I4" t="s">
-        <v>212</v>
+        <v>207</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1736,8 +1187,8 @@
       <c r="H5" t="s">
         <v>206</v>
       </c>
-      <c r="I5" t="s">
-        <v>213</v>
+      <c r="I5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1763,10 +1214,10 @@
         <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" t="s">
-        <v>214</v>
+        <v>208</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1794,8 +1245,8 @@
       <c r="H7" t="s">
         <v>206</v>
       </c>
-      <c r="I7" t="s">
-        <v>210</v>
+      <c r="I7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1823,8 +1274,8 @@
       <c r="H8" t="s">
         <v>206</v>
       </c>
-      <c r="I8" t="s">
-        <v>210</v>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1850,10 +1301,10 @@
         <v>53.07</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1881,8 +1332,8 @@
       <c r="H10" t="s">
         <v>206</v>
       </c>
-      <c r="I10" t="s">
-        <v>216</v>
+      <c r="I10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1910,8 +1361,8 @@
       <c r="H11" t="s">
         <v>206</v>
       </c>
-      <c r="I11" t="s">
-        <v>217</v>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1939,8 +1390,8 @@
       <c r="H12" t="s">
         <v>206</v>
       </c>
-      <c r="I12" t="s">
-        <v>218</v>
+      <c r="I12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1966,10 +1417,10 @@
         <v>137.05</v>
       </c>
       <c r="H13" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" t="s">
-        <v>219</v>
+        <v>210</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1995,10 +1446,10 @@
         <v>1657.81</v>
       </c>
       <c r="H14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2024,10 +1475,10 @@
         <v>46.66</v>
       </c>
       <c r="H15" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" t="s">
-        <v>221</v>
+        <v>209</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2053,10 +1504,10 @@
         <v>69.98</v>
       </c>
       <c r="H16" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" t="s">
-        <v>222</v>
+        <v>211</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2082,10 +1533,10 @@
         <v>118.49</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
-      </c>
-      <c r="I17" t="s">
-        <v>223</v>
+        <v>212</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2111,10 +1562,10 @@
         <v>24.5</v>
       </c>
       <c r="H18" t="s">
-        <v>206</v>
-      </c>
-      <c r="I18" t="s">
-        <v>224</v>
+        <v>213</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -2140,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>206</v>
-      </c>
-      <c r="I19" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2169,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
-      </c>
-      <c r="I20" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2198,10 +1649,10 @@
         <v>88.5</v>
       </c>
       <c r="H21" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2227,10 +1678,10 @@
         <v>7.99</v>
       </c>
       <c r="H22" t="s">
-        <v>206</v>
-      </c>
-      <c r="I22" t="s">
-        <v>227</v>
+        <v>214</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2256,10 +1707,10 @@
         <v>18.9</v>
       </c>
       <c r="H23" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" t="s">
-        <v>228</v>
+        <v>215</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2285,10 +1736,10 @@
         <v>17.45</v>
       </c>
       <c r="H24" t="s">
-        <v>209</v>
-      </c>
-      <c r="I24" t="s">
-        <v>229</v>
+        <v>215</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2314,10 +1765,10 @@
         <v>449.82</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
-      </c>
-      <c r="I25" t="s">
-        <v>230</v>
+        <v>205</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2343,10 +1794,10 @@
         <v>2000</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
-      </c>
-      <c r="I26" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2372,10 +1823,10 @@
         <v>191.66</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
-      </c>
-      <c r="I27" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2401,10 +1852,10 @@
         <v>368.41</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
-      </c>
-      <c r="I28" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2430,10 +1881,10 @@
         <v>1823.75</v>
       </c>
       <c r="H29" t="s">
-        <v>206</v>
-      </c>
-      <c r="I29" t="s">
-        <v>233</v>
+        <v>205</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2459,10 +1910,10 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
-      </c>
-      <c r="I30" t="s">
-        <v>234</v>
+        <v>216</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2488,10 +1939,10 @@
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>206</v>
-      </c>
-      <c r="I31" t="s">
-        <v>235</v>
+        <v>216</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2517,10 +1968,10 @@
         <v>10.56</v>
       </c>
       <c r="H32" t="s">
-        <v>206</v>
-      </c>
-      <c r="I32" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2546,10 +1997,10 @@
         <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
-      </c>
-      <c r="I33" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2575,10 +2026,10 @@
         <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>206</v>
-      </c>
-      <c r="I34" t="s">
-        <v>237</v>
+        <v>216</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2604,10 +2055,10 @@
         <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>206</v>
-      </c>
-      <c r="I35" t="s">
-        <v>238</v>
+        <v>216</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2633,10 +2084,10 @@
         <v>560</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
-      </c>
-      <c r="I36" t="s">
-        <v>239</v>
+        <v>216</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2662,10 +2113,10 @@
         <v>410.76</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I37" t="s">
-        <v>240</v>
+        <v>217</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2691,10 +2142,10 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
-      </c>
-      <c r="I38" t="s">
-        <v>241</v>
+        <v>214</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2720,10 +2171,10 @@
         <v>10.99</v>
       </c>
       <c r="H39" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39" t="s">
-        <v>241</v>
+        <v>214</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2749,10 +2200,10 @@
         <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
-      </c>
-      <c r="I40" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2778,10 +2229,10 @@
         <v>2000</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2807,10 +2258,10 @@
         <v>24.89</v>
       </c>
       <c r="H42" t="s">
-        <v>206</v>
-      </c>
-      <c r="I42" t="s">
-        <v>242</v>
+        <v>216</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2836,10 +2287,10 @@
         <v>27.76</v>
       </c>
       <c r="H43" t="s">
-        <v>206</v>
-      </c>
-      <c r="I43" t="s">
-        <v>243</v>
+        <v>214</v>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2867,8 +2318,8 @@
       <c r="H44" t="s">
         <v>206</v>
       </c>
-      <c r="I44" t="s">
-        <v>210</v>
+      <c r="I44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2894,10 +2345,10 @@
         <v>118.48</v>
       </c>
       <c r="H45" t="s">
-        <v>206</v>
-      </c>
-      <c r="I45" t="s">
-        <v>244</v>
+        <v>212</v>
+      </c>
+      <c r="I45" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2923,10 +2374,10 @@
         <v>120</v>
       </c>
       <c r="H46" t="s">
-        <v>206</v>
-      </c>
-      <c r="I46" t="s">
-        <v>245</v>
+        <v>208</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2952,10 +2403,10 @@
         <v>24.5</v>
       </c>
       <c r="H47" t="s">
-        <v>206</v>
-      </c>
-      <c r="I47" t="s">
-        <v>246</v>
+        <v>213</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2981,10 +2432,10 @@
         <v>88.48999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>206</v>
-      </c>
-      <c r="I48" t="s">
-        <v>247</v>
+        <v>209</v>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -3010,10 +2461,10 @@
         <v>46.66</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
-      </c>
-      <c r="I49" t="s">
-        <v>248</v>
+        <v>209</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -3039,10 +2490,10 @@
         <v>71.7</v>
       </c>
       <c r="H50" t="s">
-        <v>206</v>
-      </c>
-      <c r="I50" t="s">
-        <v>249</v>
+        <v>207</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3068,10 +2519,10 @@
         <v>39</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
-      </c>
-      <c r="I51" t="s">
-        <v>250</v>
+        <v>214</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3097,10 +2548,10 @@
         <v>1823.75</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
-      </c>
-      <c r="I52" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3126,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
-      </c>
-      <c r="I53" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3155,10 +2606,10 @@
         <v>45.81</v>
       </c>
       <c r="H54" t="s">
-        <v>206</v>
-      </c>
-      <c r="I54" t="s">
-        <v>251</v>
+        <v>209</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3184,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>206</v>
-      </c>
-      <c r="I55" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3213,10 +2664,10 @@
         <v>47.47</v>
       </c>
       <c r="H56" t="s">
-        <v>206</v>
-      </c>
-      <c r="I56" t="s">
-        <v>252</v>
+        <v>214</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3242,10 +2693,10 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
-      </c>
-      <c r="I57" t="s">
-        <v>253</v>
+        <v>214</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3271,10 +2722,10 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
-      </c>
-      <c r="I58" t="s">
-        <v>253</v>
+        <v>214</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3300,10 +2751,10 @@
         <v>590</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
-      </c>
-      <c r="I59" t="s">
-        <v>254</v>
+        <v>214</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3329,10 +2780,10 @@
         <v>98.5</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
-      </c>
-      <c r="I60" t="s">
-        <v>255</v>
+        <v>212</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3358,10 +2809,10 @@
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
-      </c>
-      <c r="I61" t="s">
-        <v>256</v>
+        <v>214</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3387,10 +2838,10 @@
         <v>33.59</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
-      </c>
-      <c r="I62" t="s">
-        <v>252</v>
+        <v>214</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3416,10 +2867,10 @@
         <v>29.9</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" t="s">
-        <v>257</v>
+        <v>214</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3445,10 +2896,10 @@
         <v>55</v>
       </c>
       <c r="H64" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" t="s">
-        <v>258</v>
+        <v>214</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3474,10 +2925,10 @@
         <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>206</v>
-      </c>
-      <c r="I65" t="s">
-        <v>259</v>
+        <v>214</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3503,10 +2954,10 @@
         <v>55</v>
       </c>
       <c r="H66" t="s">
-        <v>206</v>
-      </c>
-      <c r="I66" t="s">
-        <v>260</v>
+        <v>214</v>
+      </c>
+      <c r="I66" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3532,10 +2983,10 @@
         <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
-      </c>
-      <c r="I67" t="s">
-        <v>261</v>
+        <v>214</v>
+      </c>
+      <c r="I67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3561,10 +3012,10 @@
         <v>58.9</v>
       </c>
       <c r="H68" t="s">
-        <v>206</v>
-      </c>
-      <c r="I68" t="s">
-        <v>262</v>
+        <v>214</v>
+      </c>
+      <c r="I68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3590,10 +3041,10 @@
         <v>-66</v>
       </c>
       <c r="H69" t="s">
-        <v>206</v>
-      </c>
-      <c r="I69" t="s">
-        <v>263</v>
+        <v>214</v>
+      </c>
+      <c r="I69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3619,10 +3070,10 @@
         <v>7.99</v>
       </c>
       <c r="H70" t="s">
-        <v>206</v>
-      </c>
-      <c r="I70" t="s">
-        <v>227</v>
+        <v>214</v>
+      </c>
+      <c r="I70" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3648,10 +3099,10 @@
         <v>28.53</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
-      </c>
-      <c r="I71" t="s">
-        <v>264</v>
+        <v>214</v>
+      </c>
+      <c r="I71" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3677,10 +3128,10 @@
         <v>20.9</v>
       </c>
       <c r="H72" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" t="s">
-        <v>265</v>
+        <v>215</v>
+      </c>
+      <c r="I72" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3706,10 +3157,10 @@
         <v>57</v>
       </c>
       <c r="H73" t="s">
-        <v>206</v>
-      </c>
-      <c r="I73" t="s">
-        <v>266</v>
+        <v>214</v>
+      </c>
+      <c r="I73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3735,10 +3186,10 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>206</v>
-      </c>
-      <c r="I74" t="s">
-        <v>267</v>
+        <v>214</v>
+      </c>
+      <c r="I74" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3764,10 +3215,10 @@
         <v>120</v>
       </c>
       <c r="H75" t="s">
-        <v>206</v>
-      </c>
-      <c r="I75" t="s">
-        <v>261</v>
+        <v>214</v>
+      </c>
+      <c r="I75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3793,10 +3244,10 @@
         <v>17.45</v>
       </c>
       <c r="H76" t="s">
-        <v>206</v>
-      </c>
-      <c r="I76" t="s">
-        <v>268</v>
+        <v>214</v>
+      </c>
+      <c r="I76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3822,10 +3273,10 @@
         <v>15.95</v>
       </c>
       <c r="H77" t="s">
-        <v>206</v>
-      </c>
-      <c r="I77" t="s">
-        <v>269</v>
+        <v>214</v>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3851,10 +3302,10 @@
         <v>42.82</v>
       </c>
       <c r="H78" t="s">
-        <v>206</v>
-      </c>
-      <c r="I78" t="s">
-        <v>232</v>
+        <v>216</v>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3880,10 +3331,10 @@
         <v>3000</v>
       </c>
       <c r="H79" t="s">
-        <v>206</v>
-      </c>
-      <c r="I79" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3909,10 +3360,10 @@
         <v>5000</v>
       </c>
       <c r="H80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I80" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3938,10 +3389,10 @@
         <v>900</v>
       </c>
       <c r="H81" t="s">
-        <v>206</v>
-      </c>
-      <c r="I81" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3967,10 +3418,10 @@
         <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
-      </c>
-      <c r="I82" t="s">
-        <v>270</v>
+        <v>205</v>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3996,10 +3447,10 @@
         <v>45.9</v>
       </c>
       <c r="H83" t="s">
-        <v>206</v>
-      </c>
-      <c r="I83" t="s">
-        <v>271</v>
+        <v>214</v>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -4025,10 +3476,10 @@
         <v>40</v>
       </c>
       <c r="H84" t="s">
-        <v>206</v>
-      </c>
-      <c r="I84" t="s">
-        <v>272</v>
+        <v>214</v>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -4054,10 +3505,10 @@
         <v>6997.09</v>
       </c>
       <c r="H85" t="s">
-        <v>206</v>
-      </c>
-      <c r="I85" t="s">
-        <v>273</v>
+        <v>214</v>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -4083,10 +3534,10 @@
         <v>811.35</v>
       </c>
       <c r="H86" t="s">
-        <v>206</v>
-      </c>
-      <c r="I86" t="s">
-        <v>274</v>
+        <v>216</v>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4112,10 +3563,10 @@
         <v>71.5</v>
       </c>
       <c r="H87" t="s">
-        <v>206</v>
-      </c>
-      <c r="I87" t="s">
-        <v>275</v>
+        <v>216</v>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -4141,10 +3592,10 @@
         <v>1000</v>
       </c>
       <c r="H88" t="s">
-        <v>206</v>
-      </c>
-      <c r="I88" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -4170,10 +3621,10 @@
         <v>1937.94</v>
       </c>
       <c r="H89" t="s">
-        <v>206</v>
-      </c>
-      <c r="I89" t="s">
-        <v>233</v>
+        <v>205</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -4199,10 +3650,10 @@
         <v>84.41</v>
       </c>
       <c r="H90" t="s">
-        <v>206</v>
-      </c>
-      <c r="I90" t="s">
-        <v>277</v>
+        <v>214</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -4228,10 +3679,10 @@
         <v>66</v>
       </c>
       <c r="H91" t="s">
-        <v>206</v>
-      </c>
-      <c r="I91" t="s">
-        <v>278</v>
+        <v>214</v>
+      </c>
+      <c r="I91" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -4257,10 +3708,10 @@
         <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" t="s">
-        <v>279</v>
+        <v>214</v>
+      </c>
+      <c r="I92" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -4286,10 +3737,10 @@
         <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>206</v>
-      </c>
-      <c r="I93" t="s">
-        <v>280</v>
+        <v>214</v>
+      </c>
+      <c r="I93" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4315,10 +3766,10 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>206</v>
-      </c>
-      <c r="I94" t="s">
-        <v>281</v>
+        <v>214</v>
+      </c>
+      <c r="I94" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4344,10 +3795,10 @@
         <v>500</v>
       </c>
       <c r="H95" t="s">
-        <v>206</v>
-      </c>
-      <c r="I95" t="s">
-        <v>276</v>
+        <v>217</v>
+      </c>
+      <c r="I95" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4373,10 +3824,10 @@
         <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>206</v>
-      </c>
-      <c r="I96" t="s">
-        <v>282</v>
+        <v>214</v>
+      </c>
+      <c r="I96" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4402,10 +3853,10 @@
         <v>8.5</v>
       </c>
       <c r="H97" t="s">
-        <v>206</v>
-      </c>
-      <c r="I97" t="s">
-        <v>283</v>
+        <v>214</v>
+      </c>
+      <c r="I97" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4431,10 +3882,10 @@
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>206</v>
-      </c>
-      <c r="I98" t="s">
-        <v>282</v>
+        <v>214</v>
+      </c>
+      <c r="I98" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4460,10 +3911,10 @@
         <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>206</v>
-      </c>
-      <c r="I99" t="s">
-        <v>234</v>
+        <v>216</v>
+      </c>
+      <c r="I99" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4489,10 +3940,10 @@
         <v>115.08</v>
       </c>
       <c r="H100" t="s">
-        <v>206</v>
-      </c>
-      <c r="I100" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="I100" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4518,10 +3969,10 @@
         <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>206</v>
-      </c>
-      <c r="I101" t="s">
-        <v>284</v>
+        <v>214</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4547,10 +3998,10 @@
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>206</v>
-      </c>
-      <c r="I102" t="s">
-        <v>285</v>
+        <v>214</v>
+      </c>
+      <c r="I102" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4576,10 +4027,10 @@
         <v>80</v>
       </c>
       <c r="H103" t="s">
-        <v>206</v>
-      </c>
-      <c r="I103" t="s">
-        <v>286</v>
+        <v>214</v>
+      </c>
+      <c r="I103" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4605,10 +4056,10 @@
         <v>31</v>
       </c>
       <c r="H104" t="s">
-        <v>206</v>
-      </c>
-      <c r="I104" t="s">
-        <v>287</v>
+        <v>214</v>
+      </c>
+      <c r="I104" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4634,10 +4085,10 @@
         <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>206</v>
-      </c>
-      <c r="I105" t="s">
-        <v>288</v>
+        <v>214</v>
+      </c>
+      <c r="I105" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4663,10 +4114,10 @@
         <v>36</v>
       </c>
       <c r="H106" t="s">
-        <v>206</v>
-      </c>
-      <c r="I106" t="s">
-        <v>289</v>
+        <v>214</v>
+      </c>
+      <c r="I106" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4692,10 +4143,10 @@
         <v>10</v>
       </c>
       <c r="H107" t="s">
-        <v>206</v>
-      </c>
-      <c r="I107" t="s">
-        <v>290</v>
+        <v>214</v>
+      </c>
+      <c r="I107" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4721,10 +4172,10 @@
         <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>206</v>
-      </c>
-      <c r="I108" t="s">
-        <v>291</v>
+        <v>216</v>
+      </c>
+      <c r="I108" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4750,10 +4201,10 @@
         <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>206</v>
-      </c>
-      <c r="I109" t="s">
-        <v>292</v>
+        <v>214</v>
+      </c>
+      <c r="I109" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4779,10 +4230,10 @@
         <v>2000</v>
       </c>
       <c r="H110" t="s">
-        <v>206</v>
-      </c>
-      <c r="I110" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4808,10 +4259,10 @@
         <v>71.7</v>
       </c>
       <c r="H111" t="s">
-        <v>206</v>
-      </c>
-      <c r="I111" t="s">
-        <v>293</v>
+        <v>207</v>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4837,10 +4288,10 @@
         <v>98.5</v>
       </c>
       <c r="H112" t="s">
-        <v>206</v>
-      </c>
-      <c r="I112" t="s">
-        <v>294</v>
+        <v>212</v>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4866,10 +4317,10 @@
         <v>46.66</v>
       </c>
       <c r="H113" t="s">
-        <v>206</v>
-      </c>
-      <c r="I113" t="s">
-        <v>295</v>
+        <v>209</v>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4895,10 +4346,10 @@
         <v>115.71</v>
       </c>
       <c r="H114" t="s">
-        <v>206</v>
-      </c>
-      <c r="I114" t="s">
-        <v>296</v>
+        <v>214</v>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4924,10 +4375,10 @@
         <v>120</v>
       </c>
       <c r="H115" t="s">
-        <v>206</v>
-      </c>
-      <c r="I115" t="s">
-        <v>297</v>
+        <v>208</v>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4953,10 +4404,10 @@
         <v>118.48</v>
       </c>
       <c r="H116" t="s">
-        <v>206</v>
-      </c>
-      <c r="I116" t="s">
-        <v>298</v>
+        <v>212</v>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4982,10 +4433,10 @@
         <v>45.8</v>
       </c>
       <c r="H117" t="s">
-        <v>206</v>
-      </c>
-      <c r="I117" t="s">
-        <v>299</v>
+        <v>209</v>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -5011,10 +4462,10 @@
         <v>71</v>
       </c>
       <c r="H118" t="s">
-        <v>206</v>
-      </c>
-      <c r="I118" t="s">
-        <v>300</v>
+        <v>214</v>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -5040,10 +4491,10 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>206</v>
-      </c>
-      <c r="I119" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -5069,10 +4520,10 @@
         <v>1937.94</v>
       </c>
       <c r="H120" t="s">
-        <v>206</v>
-      </c>
-      <c r="I120" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -5098,10 +4549,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>206</v>
-      </c>
-      <c r="I121" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -5127,10 +4578,10 @@
         <v>112</v>
       </c>
       <c r="H122" t="s">
-        <v>206</v>
-      </c>
-      <c r="I122" t="s">
-        <v>301</v>
+        <v>214</v>
+      </c>
+      <c r="I122" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -5156,10 +4607,10 @@
         <v>89.90000000000001</v>
       </c>
       <c r="H123" t="s">
-        <v>206</v>
-      </c>
-      <c r="I123" t="s">
-        <v>302</v>
+        <v>208</v>
+      </c>
+      <c r="I123" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -5187,8 +4638,8 @@
       <c r="H124" t="s">
         <v>206</v>
       </c>
-      <c r="I124" t="s">
-        <v>303</v>
+      <c r="I124" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -5214,10 +4665,10 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>206</v>
-      </c>
-      <c r="I125" t="s">
-        <v>253</v>
+        <v>214</v>
+      </c>
+      <c r="I125" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -5243,10 +4694,10 @@
         <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>206</v>
-      </c>
-      <c r="I126" t="s">
-        <v>253</v>
+        <v>214</v>
+      </c>
+      <c r="I126" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -5272,10 +4723,10 @@
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>206</v>
-      </c>
-      <c r="I127" t="s">
-        <v>304</v>
+        <v>214</v>
+      </c>
+      <c r="I127" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5301,10 +4752,10 @@
         <v>60</v>
       </c>
       <c r="H128" t="s">
-        <v>206</v>
-      </c>
-      <c r="I128" t="s">
-        <v>305</v>
+        <v>214</v>
+      </c>
+      <c r="I128" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5330,10 +4781,10 @@
         <v>113.93</v>
       </c>
       <c r="H129" t="s">
-        <v>206</v>
-      </c>
-      <c r="I129" t="s">
-        <v>306</v>
+        <v>214</v>
+      </c>
+      <c r="I129" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5359,10 +4810,10 @@
         <v>79.90000000000001</v>
       </c>
       <c r="H130" t="s">
-        <v>206</v>
-      </c>
-      <c r="I130" t="s">
-        <v>307</v>
+        <v>214</v>
+      </c>
+      <c r="I130" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5388,10 +4839,10 @@
         <v>29</v>
       </c>
       <c r="H131" t="s">
-        <v>206</v>
-      </c>
-      <c r="I131" t="s">
-        <v>308</v>
+        <v>214</v>
+      </c>
+      <c r="I131" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5417,10 +4868,10 @@
         <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>206</v>
-      </c>
-      <c r="I132" t="s">
-        <v>309</v>
+        <v>214</v>
+      </c>
+      <c r="I132" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5446,10 +4897,10 @@
         <v>20.9</v>
       </c>
       <c r="H133" t="s">
-        <v>206</v>
-      </c>
-      <c r="I133" t="s">
-        <v>265</v>
+        <v>215</v>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5475,10 +4926,10 @@
         <v>149</v>
       </c>
       <c r="H134" t="s">
-        <v>206</v>
-      </c>
-      <c r="I134" t="s">
-        <v>310</v>
+        <v>214</v>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5504,10 +4955,10 @@
         <v>55</v>
       </c>
       <c r="H135" t="s">
-        <v>206</v>
-      </c>
-      <c r="I135" t="s">
-        <v>311</v>
+        <v>214</v>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5535,8 +4986,8 @@
       <c r="H136" t="s">
         <v>206</v>
       </c>
-      <c r="I136" t="s">
-        <v>312</v>
+      <c r="I136" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5562,10 +5013,10 @@
         <v>45</v>
       </c>
       <c r="H137" t="s">
-        <v>206</v>
-      </c>
-      <c r="I137" t="s">
-        <v>313</v>
+        <v>214</v>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5593,8 +5044,8 @@
       <c r="H138" t="s">
         <v>206</v>
       </c>
-      <c r="I138" t="s">
-        <v>314</v>
+      <c r="I138" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5620,10 +5071,10 @@
         <v>17.45</v>
       </c>
       <c r="H139" t="s">
-        <v>206</v>
-      </c>
-      <c r="I139" t="s">
-        <v>268</v>
+        <v>214</v>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5649,10 +5100,10 @@
         <v>2000</v>
       </c>
       <c r="H140" t="s">
-        <v>206</v>
-      </c>
-      <c r="I140" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5678,10 +5129,10 @@
         <v>34</v>
       </c>
       <c r="H141" t="s">
-        <v>206</v>
-      </c>
-      <c r="I141" t="s">
-        <v>315</v>
+        <v>214</v>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5707,10 +5158,10 @@
         <v>40</v>
       </c>
       <c r="H142" t="s">
-        <v>206</v>
-      </c>
-      <c r="I142" t="s">
-        <v>234</v>
+        <v>216</v>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5736,10 +5187,10 @@
         <v>40</v>
       </c>
       <c r="H143" t="s">
-        <v>206</v>
-      </c>
-      <c r="I143" t="s">
-        <v>316</v>
+        <v>214</v>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5765,10 +5216,10 @@
         <v>37.73</v>
       </c>
       <c r="H144" t="s">
-        <v>206</v>
-      </c>
-      <c r="I144" t="s">
-        <v>317</v>
+        <v>214</v>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5794,10 +5245,10 @@
         <v>37.78</v>
       </c>
       <c r="H145" t="s">
-        <v>206</v>
-      </c>
-      <c r="I145" t="s">
-        <v>318</v>
+        <v>214</v>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5823,10 +5274,10 @@
         <v>39.9</v>
       </c>
       <c r="H146" t="s">
-        <v>206</v>
-      </c>
-      <c r="I146" t="s">
-        <v>319</v>
+        <v>214</v>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5852,10 +5303,10 @@
         <v>46</v>
       </c>
       <c r="H147" t="s">
-        <v>206</v>
-      </c>
-      <c r="I147" t="s">
-        <v>320</v>
+        <v>214</v>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5881,10 +5332,10 @@
         <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>206</v>
-      </c>
-      <c r="I148" t="s">
-        <v>321</v>
+        <v>216</v>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5910,10 +5361,10 @@
         <v>1837.54</v>
       </c>
       <c r="H149" t="s">
-        <v>206</v>
-      </c>
-      <c r="I149" t="s">
-        <v>233</v>
+        <v>205</v>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5939,10 +5390,10 @@
         <v>19.5</v>
       </c>
       <c r="H150" t="s">
-        <v>206</v>
-      </c>
-      <c r="I150" t="s">
-        <v>285</v>
+        <v>214</v>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5968,10 +5419,10 @@
         <v>1400</v>
       </c>
       <c r="H151" t="s">
-        <v>206</v>
-      </c>
-      <c r="I151" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5997,10 +5448,10 @@
         <v>632</v>
       </c>
       <c r="H152" t="s">
-        <v>206</v>
-      </c>
-      <c r="I152" t="s">
-        <v>274</v>
+        <v>216</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -6026,10 +5477,10 @@
         <v>1372.93</v>
       </c>
       <c r="H153" t="s">
-        <v>206</v>
-      </c>
-      <c r="I153" t="s">
-        <v>322</v>
+        <v>214</v>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -6055,10 +5506,10 @@
         <v>1372.93</v>
       </c>
       <c r="H154" t="s">
-        <v>206</v>
-      </c>
-      <c r="I154" t="s">
-        <v>322</v>
+        <v>214</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -6084,10 +5535,10 @@
         <v>38</v>
       </c>
       <c r="H155" t="s">
-        <v>206</v>
-      </c>
-      <c r="I155" t="s">
-        <v>323</v>
+        <v>214</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -6113,10 +5564,10 @@
         <v>18</v>
       </c>
       <c r="H156" t="s">
-        <v>206</v>
-      </c>
-      <c r="I156" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -6142,10 +5593,10 @@
         <v>45.5</v>
       </c>
       <c r="H157" t="s">
-        <v>206</v>
-      </c>
-      <c r="I157" t="s">
-        <v>325</v>
+        <v>214</v>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -6171,10 +5622,10 @@
         <v>50</v>
       </c>
       <c r="H158" t="s">
-        <v>206</v>
-      </c>
-      <c r="I158" t="s">
-        <v>326</v>
+        <v>214</v>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -6200,10 +5651,10 @@
         <v>57</v>
       </c>
       <c r="H159" t="s">
-        <v>206</v>
-      </c>
-      <c r="I159" t="s">
-        <v>327</v>
+        <v>214</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -6229,10 +5680,10 @@
         <v>8</v>
       </c>
       <c r="H160" t="s">
-        <v>206</v>
-      </c>
-      <c r="I160" t="s">
-        <v>328</v>
+        <v>214</v>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -6258,10 +5709,10 @@
         <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>206</v>
-      </c>
-      <c r="I161" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -6287,10 +5738,10 @@
         <v>39</v>
       </c>
       <c r="H162" t="s">
-        <v>206</v>
-      </c>
-      <c r="I162" t="s">
-        <v>329</v>
+        <v>214</v>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6316,10 +5767,10 @@
         <v>15</v>
       </c>
       <c r="H163" t="s">
-        <v>206</v>
-      </c>
-      <c r="I163" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6345,10 +5796,10 @@
         <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>206</v>
-      </c>
-      <c r="I164" t="s">
-        <v>330</v>
+        <v>214</v>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6374,10 +5825,10 @@
         <v>23</v>
       </c>
       <c r="H165" t="s">
-        <v>206</v>
-      </c>
-      <c r="I165" t="s">
-        <v>331</v>
+        <v>214</v>
+      </c>
+      <c r="I165" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6403,10 +5854,10 @@
         <v>76.48999999999999</v>
       </c>
       <c r="H166" t="s">
-        <v>206</v>
-      </c>
-      <c r="I166" t="s">
-        <v>332</v>
+        <v>216</v>
+      </c>
+      <c r="I166" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6432,10 +5883,10 @@
         <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>206</v>
-      </c>
-      <c r="I167" t="s">
-        <v>328</v>
+        <v>214</v>
+      </c>
+      <c r="I167" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6461,10 +5912,10 @@
         <v>28</v>
       </c>
       <c r="H168" t="s">
-        <v>206</v>
-      </c>
-      <c r="I168" t="s">
-        <v>333</v>
+        <v>214</v>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6490,10 +5941,10 @@
         <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>206</v>
-      </c>
-      <c r="I169" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6519,10 +5970,10 @@
         <v>15</v>
       </c>
       <c r="H170" t="s">
-        <v>206</v>
-      </c>
-      <c r="I170" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6548,10 +5999,10 @@
         <v>15</v>
       </c>
       <c r="H171" t="s">
-        <v>206</v>
-      </c>
-      <c r="I171" t="s">
-        <v>334</v>
+        <v>214</v>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6577,10 +6028,10 @@
         <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>206</v>
-      </c>
-      <c r="I172" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6606,10 +6057,10 @@
         <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>206</v>
-      </c>
-      <c r="I173" t="s">
-        <v>291</v>
+        <v>216</v>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6635,10 +6086,10 @@
         <v>5.25</v>
       </c>
       <c r="H174" t="s">
-        <v>206</v>
-      </c>
-      <c r="I174" t="s">
-        <v>335</v>
+        <v>214</v>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6664,10 +6115,10 @@
         <v>10.59</v>
       </c>
       <c r="H175" t="s">
-        <v>206</v>
-      </c>
-      <c r="I175" t="s">
-        <v>336</v>
+        <v>214</v>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6693,10 +6144,10 @@
         <v>68.77</v>
       </c>
       <c r="H176" t="s">
-        <v>206</v>
-      </c>
-      <c r="I176" t="s">
-        <v>337</v>
+        <v>214</v>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6722,10 +6173,10 @@
         <v>31.9</v>
       </c>
       <c r="H177" t="s">
-        <v>206</v>
-      </c>
-      <c r="I177" t="s">
-        <v>338</v>
+        <v>214</v>
+      </c>
+      <c r="I177" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6751,10 +6202,10 @@
         <v>162</v>
       </c>
       <c r="H178" t="s">
-        <v>206</v>
-      </c>
-      <c r="I178" t="s">
-        <v>339</v>
+        <v>214</v>
+      </c>
+      <c r="I178" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6780,10 +6231,10 @@
         <v>60.7</v>
       </c>
       <c r="H179" t="s">
-        <v>206</v>
-      </c>
-      <c r="I179" t="s">
-        <v>340</v>
+        <v>214</v>
+      </c>
+      <c r="I179" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6809,10 +6260,10 @@
         <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>206</v>
-      </c>
-      <c r="I180" t="s">
-        <v>341</v>
+        <v>214</v>
+      </c>
+      <c r="I180" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6838,10 +6289,10 @@
         <v>3000</v>
       </c>
       <c r="H181" t="s">
-        <v>206</v>
-      </c>
-      <c r="I181" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I181" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6867,10 +6318,10 @@
         <v>20</v>
       </c>
       <c r="H182" t="s">
-        <v>206</v>
-      </c>
-      <c r="I182" t="s">
-        <v>342</v>
+        <v>214</v>
+      </c>
+      <c r="I182" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6896,10 +6347,10 @@
         <v>22</v>
       </c>
       <c r="H183" t="s">
-        <v>206</v>
-      </c>
-      <c r="I183" t="s">
-        <v>342</v>
+        <v>214</v>
+      </c>
+      <c r="I183" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6925,10 +6376,10 @@
         <v>30</v>
       </c>
       <c r="H184" t="s">
-        <v>206</v>
-      </c>
-      <c r="I184" t="s">
-        <v>342</v>
+        <v>214</v>
+      </c>
+      <c r="I184" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6956,8 +6407,8 @@
       <c r="H185" t="s">
         <v>206</v>
       </c>
-      <c r="I185" t="s">
-        <v>343</v>
+      <c r="I185" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6983,10 +6434,10 @@
         <v>120</v>
       </c>
       <c r="H186" t="s">
-        <v>206</v>
-      </c>
-      <c r="I186" t="s">
-        <v>344</v>
+        <v>208</v>
+      </c>
+      <c r="I186" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -7012,10 +6463,10 @@
         <v>71.7</v>
       </c>
       <c r="H187" t="s">
-        <v>206</v>
-      </c>
-      <c r="I187" t="s">
-        <v>345</v>
+        <v>207</v>
+      </c>
+      <c r="I187" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -7043,8 +6494,8 @@
       <c r="H188" t="s">
         <v>206</v>
       </c>
-      <c r="I188" t="s">
-        <v>346</v>
+      <c r="I188" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -7072,8 +6523,8 @@
       <c r="H189" t="s">
         <v>206</v>
       </c>
-      <c r="I189" t="s">
-        <v>347</v>
+      <c r="I189" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -7099,10 +6550,10 @@
         <v>73.92</v>
       </c>
       <c r="H190" t="s">
-        <v>206</v>
-      </c>
-      <c r="I190" t="s">
-        <v>348</v>
+        <v>209</v>
+      </c>
+      <c r="I190" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -7128,10 +6579,10 @@
         <v>14.97</v>
       </c>
       <c r="H191" t="s">
-        <v>206</v>
-      </c>
-      <c r="I191" t="s">
-        <v>349</v>
+        <v>214</v>
+      </c>
+      <c r="I191" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -7157,10 +6608,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>206</v>
-      </c>
-      <c r="I192" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I192" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -7186,10 +6637,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>206</v>
-      </c>
-      <c r="I193" t="s">
-        <v>225</v>
+        <v>208</v>
+      </c>
+      <c r="I193" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -7215,10 +6666,10 @@
         <v>1837.54</v>
       </c>
       <c r="H194" t="s">
-        <v>206</v>
-      </c>
-      <c r="I194" t="s">
-        <v>220</v>
+        <v>205</v>
+      </c>
+      <c r="I194" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -7244,10 +6695,10 @@
         <v>59</v>
       </c>
       <c r="H195" t="s">
-        <v>206</v>
-      </c>
-      <c r="I195" t="s">
-        <v>350</v>
+        <v>214</v>
+      </c>
+      <c r="I195" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -7273,10 +6724,10 @@
         <v>9.99</v>
       </c>
       <c r="H196" t="s">
-        <v>206</v>
-      </c>
-      <c r="I196" t="s">
-        <v>351</v>
+        <v>214</v>
+      </c>
+      <c r="I196" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7302,10 +6753,10 @@
         <v>30</v>
       </c>
       <c r="H197" t="s">
-        <v>206</v>
-      </c>
-      <c r="I197" t="s">
-        <v>352</v>
+        <v>214</v>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7331,10 +6782,10 @@
         <v>46.89</v>
       </c>
       <c r="H198" t="s">
-        <v>206</v>
-      </c>
-      <c r="I198" t="s">
-        <v>353</v>
+        <v>214</v>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7360,10 +6811,10 @@
         <v>18.11</v>
       </c>
       <c r="H199" t="s">
-        <v>206</v>
-      </c>
-      <c r="I199" t="s">
-        <v>349</v>
+        <v>214</v>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7389,10 +6840,10 @@
         <v>14.98</v>
       </c>
       <c r="H200" t="s">
-        <v>206</v>
-      </c>
-      <c r="I200" t="s">
-        <v>349</v>
+        <v>214</v>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7418,10 +6869,10 @@
         <v>52.58</v>
       </c>
       <c r="H201" t="s">
-        <v>206</v>
-      </c>
-      <c r="I201" t="s">
-        <v>354</v>
+        <v>214</v>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7447,10 +6898,10 @@
         <v>19.98</v>
       </c>
       <c r="H202" t="s">
-        <v>206</v>
-      </c>
-      <c r="I202" t="s">
-        <v>349</v>
+        <v>214</v>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7476,10 +6927,10 @@
         <v>11.9</v>
       </c>
       <c r="H203" t="s">
-        <v>206</v>
-      </c>
-      <c r="I203" t="s">
-        <v>349</v>
+        <v>214</v>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7505,10 +6956,10 @@
         <v>27.98</v>
       </c>
       <c r="H204" t="s">
-        <v>206</v>
-      </c>
-      <c r="I204" t="s">
-        <v>349</v>
+        <v>214</v>
+      </c>
+      <c r="I204" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7536,8 +6987,8 @@
       <c r="H205" t="s">
         <v>206</v>
       </c>
-      <c r="I205" t="s">
-        <v>355</v>
+      <c r="I205" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7563,10 +7014,10 @@
         <v>150</v>
       </c>
       <c r="H206" t="s">
-        <v>206</v>
-      </c>
-      <c r="I206" t="s">
-        <v>356</v>
+        <v>214</v>
+      </c>
+      <c r="I206" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7592,10 +7043,10 @@
         <v>28.94</v>
       </c>
       <c r="H207" t="s">
-        <v>206</v>
-      </c>
-      <c r="I207" t="s">
-        <v>349</v>
+        <v>214</v>
+      </c>
+      <c r="I207" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7621,10 +7072,10 @@
         <v>20.9</v>
       </c>
       <c r="H208" t="s">
-        <v>206</v>
-      </c>
-      <c r="I208" t="s">
-        <v>357</v>
+        <v>215</v>
+      </c>
+      <c r="I208" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7650,10 +7101,10 @@
         <v>93.84999999999999</v>
       </c>
       <c r="H209" t="s">
-        <v>206</v>
-      </c>
-      <c r="I209" t="s">
-        <v>358</v>
+        <v>214</v>
+      </c>
+      <c r="I209" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7679,10 +7130,10 @@
         <v>68.90000000000001</v>
       </c>
       <c r="H210" t="s">
-        <v>206</v>
-      </c>
-      <c r="I210" t="s">
-        <v>359</v>
+        <v>214</v>
+      </c>
+      <c r="I210" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7708,10 +7159,10 @@
         <v>18.95</v>
       </c>
       <c r="H211" t="s">
-        <v>206</v>
-      </c>
-      <c r="I211" t="s">
-        <v>360</v>
+        <v>214</v>
+      </c>
+      <c r="I211" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7737,10 +7188,10 @@
         <v>19.95</v>
       </c>
       <c r="H212" t="s">
-        <v>206</v>
-      </c>
-      <c r="I212" t="s">
-        <v>268</v>
+        <v>214</v>
+      </c>
+      <c r="I212" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7766,10 +7217,10 @@
         <v>15</v>
       </c>
       <c r="H213" t="s">
-        <v>206</v>
-      </c>
-      <c r="I213" t="s">
-        <v>361</v>
+        <v>214</v>
+      </c>
+      <c r="I213" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7795,10 +7246,10 @@
         <v>21.5</v>
       </c>
       <c r="H214" t="s">
-        <v>206</v>
-      </c>
-      <c r="I214" t="s">
-        <v>362</v>
+        <v>214</v>
+      </c>
+      <c r="I214" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7824,10 +7275,10 @@
         <v>10</v>
       </c>
       <c r="H215" t="s">
-        <v>206</v>
-      </c>
-      <c r="I215" t="s">
-        <v>363</v>
+        <v>214</v>
+      </c>
+      <c r="I215" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7853,10 +7304,10 @@
         <v>57</v>
       </c>
       <c r="H216" t="s">
-        <v>206</v>
-      </c>
-      <c r="I216" t="s">
-        <v>364</v>
+        <v>214</v>
+      </c>
+      <c r="I216" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7882,10 +7333,10 @@
         <v>29</v>
       </c>
       <c r="H217" t="s">
-        <v>206</v>
-      </c>
-      <c r="I217" t="s">
-        <v>284</v>
+        <v>214</v>
+      </c>
+      <c r="I217" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7911,10 +7362,10 @@
         <v>1517.33</v>
       </c>
       <c r="H218" t="s">
-        <v>206</v>
-      </c>
-      <c r="I218" t="s">
-        <v>240</v>
+        <v>217</v>
+      </c>
+      <c r="I218" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7940,10 +7391,10 @@
         <v>120</v>
       </c>
       <c r="H219" t="s">
-        <v>206</v>
-      </c>
-      <c r="I219" t="s">
-        <v>365</v>
+        <v>216</v>
+      </c>
+      <c r="I219" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7969,10 +7420,10 @@
         <v>5</v>
       </c>
       <c r="H220" t="s">
-        <v>206</v>
-      </c>
-      <c r="I220" t="s">
-        <v>366</v>
+        <v>214</v>
+      </c>
+      <c r="I220" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7998,10 +7449,10 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>206</v>
-      </c>
-      <c r="I221" t="s">
-        <v>367</v>
+        <v>214</v>
+      </c>
+      <c r="I221" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -8027,10 +7478,10 @@
         <v>33</v>
       </c>
       <c r="H222" t="s">
-        <v>206</v>
-      </c>
-      <c r="I222" t="s">
-        <v>239</v>
+        <v>216</v>
+      </c>
+      <c r="I222" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8056,10 +7507,10 @@
         <v>34.2</v>
       </c>
       <c r="H223" t="s">
-        <v>206</v>
-      </c>
-      <c r="I223" t="s">
-        <v>368</v>
+        <v>214</v>
+      </c>
+      <c r="I223" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -8085,10 +7536,10 @@
         <v>29.4</v>
       </c>
       <c r="H224" t="s">
-        <v>206</v>
-      </c>
-      <c r="I224" t="s">
-        <v>369</v>
+        <v>214</v>
+      </c>
+      <c r="I224" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -8114,10 +7565,10 @@
         <v>13.9</v>
       </c>
       <c r="H225" t="s">
-        <v>206</v>
-      </c>
-      <c r="I225" t="s">
-        <v>369</v>
+        <v>214</v>
+      </c>
+      <c r="I225" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -8143,10 +7594,10 @@
         <v>25.5</v>
       </c>
       <c r="H226" t="s">
-        <v>206</v>
-      </c>
-      <c r="I226" t="s">
-        <v>370</v>
+        <v>214</v>
+      </c>
+      <c r="I226" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -8172,10 +7623,10 @@
         <v>75.08</v>
       </c>
       <c r="H227" t="s">
-        <v>206</v>
-      </c>
-      <c r="I227" t="s">
-        <v>277</v>
+        <v>214</v>
+      </c>
+      <c r="I227" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -8201,10 +7652,10 @@
         <v>1434.02</v>
       </c>
       <c r="H228" t="s">
-        <v>206</v>
-      </c>
-      <c r="I228" t="s">
-        <v>233</v>
+        <v>205</v>
+      </c>
+      <c r="I228" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -8230,10 +7681,10 @@
         <v>29</v>
       </c>
       <c r="H229" t="s">
-        <v>206</v>
-      </c>
-      <c r="I229" t="s">
-        <v>284</v>
+        <v>214</v>
+      </c>
+      <c r="I229" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -8259,10 +7710,10 @@
         <v>1000</v>
       </c>
       <c r="H230" t="s">
-        <v>206</v>
-      </c>
-      <c r="I230" t="s">
-        <v>231</v>
+        <v>216</v>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -8288,10 +7739,10 @@
         <v>31</v>
       </c>
       <c r="H231" t="s">
-        <v>206</v>
-      </c>
-      <c r="I231" t="s">
-        <v>371</v>
+        <v>214</v>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8317,10 +7768,10 @@
         <v>37.44</v>
       </c>
       <c r="H232" t="s">
-        <v>206</v>
-      </c>
-      <c r="I232" t="s">
-        <v>372</v>
+        <v>214</v>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8346,10 +7797,10 @@
         <v>20</v>
       </c>
       <c r="H233" t="s">
-        <v>206</v>
-      </c>
-      <c r="I233" t="s">
-        <v>373</v>
+        <v>216</v>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8375,10 +7826,10 @@
         <v>56</v>
       </c>
       <c r="H234" t="s">
-        <v>206</v>
-      </c>
-      <c r="I234" t="s">
-        <v>374</v>
+        <v>214</v>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8404,10 +7855,10 @@
         <v>86.72</v>
       </c>
       <c r="H235" t="s">
-        <v>206</v>
-      </c>
-      <c r="I235" t="s">
-        <v>375</v>
+        <v>214</v>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8433,10 +7884,10 @@
         <v>17</v>
       </c>
       <c r="H236" t="s">
-        <v>206</v>
-      </c>
-      <c r="I236" t="s">
-        <v>376</v>
+        <v>214</v>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8462,10 +7913,10 @@
         <v>5</v>
       </c>
       <c r="H237" t="s">
-        <v>206</v>
-      </c>
-      <c r="I237" t="s">
-        <v>377</v>
+        <v>214</v>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8491,10 +7942,10 @@
         <v>12</v>
       </c>
       <c r="H238" t="s">
-        <v>206</v>
-      </c>
-      <c r="I238" t="s">
-        <v>378</v>
+        <v>214</v>
+      </c>
+      <c r="I238" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8520,10 +7971,10 @@
         <v>195</v>
       </c>
       <c r="H239" t="s">
-        <v>206</v>
-      </c>
-      <c r="I239" t="s">
-        <v>379</v>
+        <v>216</v>
+      </c>
+      <c r="I239" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8549,10 +8000,10 @@
         <v>10</v>
       </c>
       <c r="H240" t="s">
-        <v>206</v>
-      </c>
-      <c r="I240" t="s">
-        <v>380</v>
+        <v>214</v>
+      </c>
+      <c r="I240" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8578,10 +8029,10 @@
         <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>206</v>
-      </c>
-      <c r="I241" t="s">
-        <v>381</v>
+        <v>214</v>
+      </c>
+      <c r="I241" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8607,10 +8058,10 @@
         <v>19.99</v>
       </c>
       <c r="H242" t="s">
-        <v>206</v>
-      </c>
-      <c r="I242" t="s">
-        <v>382</v>
+        <v>214</v>
+      </c>
+      <c r="I242" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8636,10 +8087,10 @@
         <v>10</v>
       </c>
       <c r="H243" t="s">
-        <v>206</v>
-      </c>
-      <c r="I243" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8665,10 +8116,10 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>206</v>
-      </c>
-      <c r="I244" t="s">
-        <v>383</v>
+        <v>216</v>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8694,10 +8145,10 @@
         <v>200</v>
       </c>
       <c r="H245" t="s">
-        <v>206</v>
-      </c>
-      <c r="I245" t="s">
-        <v>384</v>
+        <v>214</v>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8723,10 +8174,10 @@
         <v>37.43</v>
       </c>
       <c r="H246" t="s">
-        <v>206</v>
-      </c>
-      <c r="I246" t="s">
-        <v>385</v>
+        <v>216</v>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8752,10 +8203,10 @@
         <v>20</v>
       </c>
       <c r="H247" t="s">
-        <v>206</v>
-      </c>
-      <c r="I247" t="s">
-        <v>386</v>
+        <v>216</v>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8781,10 +8232,10 @@
         <v>61</v>
       </c>
       <c r="H248" t="s">
-        <v>206</v>
-      </c>
-      <c r="I248" t="s">
-        <v>387</v>
+        <v>216</v>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8810,10 +8261,10 @@
         <v>75</v>
       </c>
       <c r="H249" t="s">
-        <v>206</v>
-      </c>
-      <c r="I249" t="s">
-        <v>388</v>
+        <v>216</v>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8839,10 +8290,10 @@
         <v>47</v>
       </c>
       <c r="H250" t="s">
-        <v>206</v>
-      </c>
-      <c r="I250" t="s">
-        <v>327</v>
+        <v>214</v>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8868,10 +8319,10 @@
         <v>30</v>
       </c>
       <c r="H251" t="s">
-        <v>206</v>
-      </c>
-      <c r="I251" t="s">
-        <v>389</v>
+        <v>214</v>
+      </c>
+      <c r="I251" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8897,10 +8348,10 @@
         <v>35</v>
       </c>
       <c r="H252" t="s">
-        <v>206</v>
-      </c>
-      <c r="I252" t="s">
-        <v>390</v>
+        <v>214</v>
+      </c>
+      <c r="I252" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8926,10 +8377,10 @@
         <v>54.9</v>
       </c>
       <c r="H253" t="s">
-        <v>206</v>
-      </c>
-      <c r="I253" t="s">
-        <v>391</v>
+        <v>214</v>
+      </c>
+      <c r="I253" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8955,10 +8406,10 @@
         <v>154.97</v>
       </c>
       <c r="H254" t="s">
-        <v>206</v>
-      </c>
-      <c r="I254" t="s">
-        <v>392</v>
+        <v>214</v>
+      </c>
+      <c r="I254" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8984,10 +8435,10 @@
         <v>120.9</v>
       </c>
       <c r="H255" t="s">
-        <v>206</v>
-      </c>
-      <c r="I255" t="s">
-        <v>384</v>
+        <v>214</v>
+      </c>
+      <c r="I255" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -9013,10 +8464,10 @@
         <v>34.9</v>
       </c>
       <c r="H256" t="s">
-        <v>206</v>
-      </c>
-      <c r="I256" t="s">
-        <v>393</v>
+        <v>216</v>
+      </c>
+      <c r="I256" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -9042,10 +8493,10 @@
         <v>70</v>
       </c>
       <c r="H257" t="s">
-        <v>206</v>
-      </c>
-      <c r="I257" t="s">
-        <v>394</v>
+        <v>216</v>
+      </c>
+      <c r="I257" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -9071,10 +8522,10 @@
         <v>12</v>
       </c>
       <c r="H258" t="s">
-        <v>206</v>
-      </c>
-      <c r="I258" t="s">
-        <v>324</v>
+        <v>214</v>
+      </c>
+      <c r="I258" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -9100,10 +8551,10 @@
         <v>28.4</v>
       </c>
       <c r="H259" t="s">
-        <v>206</v>
-      </c>
-      <c r="I259" t="s">
-        <v>395</v>
+        <v>214</v>
+      </c>
+      <c r="I259" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -9129,10 +8580,10 @@
         <v>60</v>
       </c>
       <c r="H260" t="s">
-        <v>206</v>
-      </c>
-      <c r="I260" t="s">
-        <v>396</v>
+        <v>214</v>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -9158,10 +8609,10 @@
         <v>68.92</v>
       </c>
       <c r="H261" t="s">
-        <v>206</v>
-      </c>
-      <c r="I261" t="s">
-        <v>397</v>
+        <v>214</v>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -9187,10 +8638,10 @@
         <v>12.5</v>
       </c>
       <c r="H262" t="s">
-        <v>206</v>
-      </c>
-      <c r="I262" t="s">
-        <v>398</v>
+        <v>214</v>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -9216,10 +8667,10 @@
         <v>10</v>
       </c>
       <c r="H263" t="s">
-        <v>206</v>
-      </c>
-      <c r="I263" t="s">
-        <v>399</v>
+        <v>214</v>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -9245,10 +8696,10 @@
         <v>99.90000000000001</v>
       </c>
       <c r="H264" t="s">
-        <v>206</v>
-      </c>
-      <c r="I264" t="s">
-        <v>400</v>
+        <v>216</v>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9258,7 +8709,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -9272,31 +8723,31 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>401</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B2">
-        <v>259</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9304,6 +8755,78 @@
         <v>208</v>
       </c>
       <c r="B5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
@@ -9337,7 +8860,7 @@
         <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>402</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
-    <sheet name="Classificação" sheetId="2" r:id="rId2"/>
-    <sheet name="Relatório" sheetId="3" r:id="rId3"/>
+    <sheet name="Relatório" sheetId="2" r:id="rId2"/>
+    <sheet name="Classificação" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="211">
   <si>
     <t>Índice</t>
   </si>
@@ -636,46 +636,19 @@
     <t>Receita</t>
   </si>
   <si>
-    <t>Onibus</t>
-  </si>
-  <si>
-    <t>Viajem</t>
-  </si>
-  <si>
-    <t>Maui Thay</t>
-  </si>
-  <si>
-    <t>Presente</t>
-  </si>
-  <si>
-    <t>Avião</t>
-  </si>
-  <si>
-    <t>Roupas</t>
-  </si>
-  <si>
-    <t>Perfume</t>
-  </si>
-  <si>
-    <t>Utrnsílios</t>
-  </si>
-  <si>
-    <t>Lanche</t>
-  </si>
-  <si>
-    <t>Streaming</t>
-  </si>
-  <si>
-    <t>Salário</t>
-  </si>
-  <si>
-    <t>Invesimento</t>
+    <t>Sem Classificação</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>Frequência</t>
   </si>
   <si>
-    <t>Resultado</t>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1103,7 @@
         <v>206</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1156,7 +1129,7 @@
         <v>71.72</v>
       </c>
       <c r="H4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1188,7 +1161,7 @@
         <v>206</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1214,7 +1187,7 @@
         <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1301,7 +1274,7 @@
         <v>53.07</v>
       </c>
       <c r="H9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1391,7 +1364,7 @@
         <v>206</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1417,7 +1390,7 @@
         <v>137.05</v>
       </c>
       <c r="H13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1446,10 +1419,10 @@
         <v>1657.81</v>
       </c>
       <c r="H14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1475,10 +1448,10 @@
         <v>46.66</v>
       </c>
       <c r="H15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1504,7 +1477,7 @@
         <v>69.98</v>
       </c>
       <c r="H16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1533,10 +1506,10 @@
         <v>118.49</v>
       </c>
       <c r="H17" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1562,7 +1535,7 @@
         <v>24.5</v>
       </c>
       <c r="H18" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1591,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1620,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1649,7 +1622,7 @@
         <v>88.5</v>
       </c>
       <c r="H21" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1678,10 +1651,10 @@
         <v>7.99</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1707,7 +1680,7 @@
         <v>18.9</v>
       </c>
       <c r="H23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1736,7 +1709,7 @@
         <v>17.45</v>
       </c>
       <c r="H24" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1765,10 +1738,10 @@
         <v>449.82</v>
       </c>
       <c r="H25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1794,10 +1767,10 @@
         <v>2000</v>
       </c>
       <c r="H26" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1823,10 +1796,10 @@
         <v>191.66</v>
       </c>
       <c r="H27" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1852,10 +1825,10 @@
         <v>368.41</v>
       </c>
       <c r="H28" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1881,10 +1854,10 @@
         <v>1823.75</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1910,10 +1883,10 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1939,10 +1912,10 @@
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1968,10 +1941,10 @@
         <v>10.56</v>
       </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1997,10 +1970,10 @@
         <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2026,10 +1999,10 @@
         <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2055,10 +2028,10 @@
         <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2084,10 +2057,10 @@
         <v>560</v>
       </c>
       <c r="H36" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2113,7 +2086,7 @@
         <v>410.76</v>
       </c>
       <c r="H37" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2142,10 +2115,10 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2171,10 +2144,10 @@
         <v>10.99</v>
       </c>
       <c r="H39" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2200,10 +2173,10 @@
         <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2229,10 +2202,10 @@
         <v>2000</v>
       </c>
       <c r="H41" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2258,10 +2231,10 @@
         <v>24.89</v>
       </c>
       <c r="H42" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2287,10 +2260,10 @@
         <v>27.76</v>
       </c>
       <c r="H43" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2345,7 +2318,7 @@
         <v>118.48</v>
       </c>
       <c r="H45" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
@@ -2374,10 +2347,10 @@
         <v>120</v>
       </c>
       <c r="H46" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2403,7 +2376,7 @@
         <v>24.5</v>
       </c>
       <c r="H47" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -2432,10 +2405,10 @@
         <v>88.48999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2461,10 +2434,10 @@
         <v>46.66</v>
       </c>
       <c r="H49" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2490,10 +2463,10 @@
         <v>71.7</v>
       </c>
       <c r="H50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2519,10 +2492,10 @@
         <v>39</v>
       </c>
       <c r="H51" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2548,7 +2521,7 @@
         <v>1823.75</v>
       </c>
       <c r="H52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -2577,10 +2550,10 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2606,7 +2579,7 @@
         <v>45.81</v>
       </c>
       <c r="H54" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -2635,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2664,10 +2637,10 @@
         <v>47.47</v>
       </c>
       <c r="H56" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2693,7 +2666,7 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
@@ -2722,10 +2695,10 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2751,10 +2724,10 @@
         <v>590</v>
       </c>
       <c r="H59" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2780,10 +2753,10 @@
         <v>98.5</v>
       </c>
       <c r="H60" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2809,10 +2782,10 @@
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2838,10 +2811,10 @@
         <v>33.59</v>
       </c>
       <c r="H62" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2867,10 +2840,10 @@
         <v>29.9</v>
       </c>
       <c r="H63" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2896,10 +2869,10 @@
         <v>55</v>
       </c>
       <c r="H64" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2925,10 +2898,10 @@
         <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2954,10 +2927,10 @@
         <v>55</v>
       </c>
       <c r="H66" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2983,10 +2956,10 @@
         <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3012,10 +2985,10 @@
         <v>58.9</v>
       </c>
       <c r="H68" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3041,10 +3014,10 @@
         <v>-66</v>
       </c>
       <c r="H69" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3070,10 +3043,10 @@
         <v>7.99</v>
       </c>
       <c r="H70" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3099,10 +3072,10 @@
         <v>28.53</v>
       </c>
       <c r="H71" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3128,10 +3101,10 @@
         <v>20.9</v>
       </c>
       <c r="H72" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3157,10 +3130,10 @@
         <v>57</v>
       </c>
       <c r="H73" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3186,10 +3159,10 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3215,10 +3188,10 @@
         <v>120</v>
       </c>
       <c r="H75" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3244,10 +3217,10 @@
         <v>17.45</v>
       </c>
       <c r="H76" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3273,10 +3246,10 @@
         <v>15.95</v>
       </c>
       <c r="H77" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3302,10 +3275,10 @@
         <v>42.82</v>
       </c>
       <c r="H78" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3331,7 +3304,7 @@
         <v>3000</v>
       </c>
       <c r="H79" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
@@ -3360,7 +3333,7 @@
         <v>5000</v>
       </c>
       <c r="H80" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
@@ -3389,7 +3362,7 @@
         <v>900</v>
       </c>
       <c r="H81" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
@@ -3418,10 +3391,10 @@
         <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3447,10 +3420,10 @@
         <v>45.9</v>
       </c>
       <c r="H83" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3476,10 +3449,10 @@
         <v>40</v>
       </c>
       <c r="H84" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3505,10 +3478,10 @@
         <v>6997.09</v>
       </c>
       <c r="H85" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3534,10 +3507,10 @@
         <v>811.35</v>
       </c>
       <c r="H86" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3563,10 +3536,10 @@
         <v>71.5</v>
       </c>
       <c r="H87" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3592,10 +3565,10 @@
         <v>1000</v>
       </c>
       <c r="H88" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3621,10 +3594,10 @@
         <v>1937.94</v>
       </c>
       <c r="H89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3650,10 +3623,10 @@
         <v>84.41</v>
       </c>
       <c r="H90" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3679,10 +3652,10 @@
         <v>66</v>
       </c>
       <c r="H91" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3708,10 +3681,10 @@
         <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3737,10 +3710,10 @@
         <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3766,10 +3739,10 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3795,10 +3768,10 @@
         <v>500</v>
       </c>
       <c r="H95" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3824,10 +3797,10 @@
         <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3853,10 +3826,10 @@
         <v>8.5</v>
       </c>
       <c r="H97" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3882,10 +3855,10 @@
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3911,10 +3884,10 @@
         <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3940,10 +3913,10 @@
         <v>115.08</v>
       </c>
       <c r="H100" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3969,7 +3942,7 @@
         <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -3998,10 +3971,10 @@
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4027,10 +4000,10 @@
         <v>80</v>
       </c>
       <c r="H103" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4056,10 +4029,10 @@
         <v>31</v>
       </c>
       <c r="H104" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4085,10 +4058,10 @@
         <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4114,10 +4087,10 @@
         <v>36</v>
       </c>
       <c r="H106" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4143,10 +4116,10 @@
         <v>10</v>
       </c>
       <c r="H107" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4172,10 +4145,10 @@
         <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4201,10 +4174,10 @@
         <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4230,10 +4203,10 @@
         <v>2000</v>
       </c>
       <c r="H110" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4259,10 +4232,10 @@
         <v>71.7</v>
       </c>
       <c r="H111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4288,10 +4261,10 @@
         <v>98.5</v>
       </c>
       <c r="H112" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4317,10 +4290,10 @@
         <v>46.66</v>
       </c>
       <c r="H113" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4346,10 +4319,10 @@
         <v>115.71</v>
       </c>
       <c r="H114" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4375,10 +4348,10 @@
         <v>120</v>
       </c>
       <c r="H115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4404,10 +4377,10 @@
         <v>118.48</v>
       </c>
       <c r="H116" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4433,10 +4406,10 @@
         <v>45.8</v>
       </c>
       <c r="H117" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4462,10 +4435,10 @@
         <v>71</v>
       </c>
       <c r="H118" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4491,10 +4464,10 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4520,10 +4493,10 @@
         <v>1937.94</v>
       </c>
       <c r="H120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4549,10 +4522,10 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4578,10 +4551,10 @@
         <v>112</v>
       </c>
       <c r="H122" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4607,10 +4580,10 @@
         <v>89.90000000000001</v>
       </c>
       <c r="H123" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4665,7 +4638,7 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
@@ -4694,10 +4667,10 @@
         <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4723,10 +4696,10 @@
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -4752,10 +4725,10 @@
         <v>60</v>
       </c>
       <c r="H128" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -4781,10 +4754,10 @@
         <v>113.93</v>
       </c>
       <c r="H129" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -4810,10 +4783,10 @@
         <v>79.90000000000001</v>
       </c>
       <c r="H130" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -4839,10 +4812,10 @@
         <v>29</v>
       </c>
       <c r="H131" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -4868,10 +4841,10 @@
         <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -4897,10 +4870,10 @@
         <v>20.9</v>
       </c>
       <c r="H133" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -4926,10 +4899,10 @@
         <v>149</v>
       </c>
       <c r="H134" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -4955,10 +4928,10 @@
         <v>55</v>
       </c>
       <c r="H135" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4987,7 +4960,7 @@
         <v>206</v>
       </c>
       <c r="I136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5013,10 +4986,10 @@
         <v>45</v>
       </c>
       <c r="H137" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5045,7 +5018,7 @@
         <v>206</v>
       </c>
       <c r="I138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5071,10 +5044,10 @@
         <v>17.45</v>
       </c>
       <c r="H139" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5100,10 +5073,10 @@
         <v>2000</v>
       </c>
       <c r="H140" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5129,10 +5102,10 @@
         <v>34</v>
       </c>
       <c r="H141" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5158,10 +5131,10 @@
         <v>40</v>
       </c>
       <c r="H142" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5187,10 +5160,10 @@
         <v>40</v>
       </c>
       <c r="H143" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5216,10 +5189,10 @@
         <v>37.73</v>
       </c>
       <c r="H144" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5245,10 +5218,10 @@
         <v>37.78</v>
       </c>
       <c r="H145" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5274,10 +5247,10 @@
         <v>39.9</v>
       </c>
       <c r="H146" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5303,10 +5276,10 @@
         <v>46</v>
       </c>
       <c r="H147" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5332,10 +5305,10 @@
         <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5361,10 +5334,10 @@
         <v>1837.54</v>
       </c>
       <c r="H149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5390,10 +5363,10 @@
         <v>19.5</v>
       </c>
       <c r="H150" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5419,10 +5392,10 @@
         <v>1400</v>
       </c>
       <c r="H151" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5448,10 +5421,10 @@
         <v>632</v>
       </c>
       <c r="H152" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5477,10 +5450,10 @@
         <v>1372.93</v>
       </c>
       <c r="H153" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5506,10 +5479,10 @@
         <v>1372.93</v>
       </c>
       <c r="H154" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5535,10 +5508,10 @@
         <v>38</v>
       </c>
       <c r="H155" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5564,10 +5537,10 @@
         <v>18</v>
       </c>
       <c r="H156" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5593,10 +5566,10 @@
         <v>45.5</v>
       </c>
       <c r="H157" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5622,10 +5595,10 @@
         <v>50</v>
       </c>
       <c r="H158" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5651,10 +5624,10 @@
         <v>57</v>
       </c>
       <c r="H159" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5680,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="H160" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5709,10 +5682,10 @@
         <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5738,10 +5711,10 @@
         <v>39</v>
       </c>
       <c r="H162" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -5767,10 +5740,10 @@
         <v>15</v>
       </c>
       <c r="H163" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -5796,10 +5769,10 @@
         <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -5825,10 +5798,10 @@
         <v>23</v>
       </c>
       <c r="H165" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -5854,10 +5827,10 @@
         <v>76.48999999999999</v>
       </c>
       <c r="H166" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -5883,10 +5856,10 @@
         <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -5912,10 +5885,10 @@
         <v>28</v>
       </c>
       <c r="H168" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -5941,10 +5914,10 @@
         <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -5970,10 +5943,10 @@
         <v>15</v>
       </c>
       <c r="H170" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -5999,10 +5972,10 @@
         <v>15</v>
       </c>
       <c r="H171" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6028,10 +6001,10 @@
         <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6057,10 +6030,10 @@
         <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6086,10 +6059,10 @@
         <v>5.25</v>
       </c>
       <c r="H174" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6115,10 +6088,10 @@
         <v>10.59</v>
       </c>
       <c r="H175" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6144,10 +6117,10 @@
         <v>68.77</v>
       </c>
       <c r="H176" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6173,10 +6146,10 @@
         <v>31.9</v>
       </c>
       <c r="H177" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6202,10 +6175,10 @@
         <v>162</v>
       </c>
       <c r="H178" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6231,10 +6204,10 @@
         <v>60.7</v>
       </c>
       <c r="H179" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6260,10 +6233,10 @@
         <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6289,10 +6262,10 @@
         <v>3000</v>
       </c>
       <c r="H181" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6318,10 +6291,10 @@
         <v>20</v>
       </c>
       <c r="H182" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6347,10 +6320,10 @@
         <v>22</v>
       </c>
       <c r="H183" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6376,10 +6349,10 @@
         <v>30</v>
       </c>
       <c r="H184" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6408,7 +6381,7 @@
         <v>206</v>
       </c>
       <c r="I185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6434,10 +6407,10 @@
         <v>120</v>
       </c>
       <c r="H186" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6463,10 +6436,10 @@
         <v>71.7</v>
       </c>
       <c r="H187" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6495,7 +6468,7 @@
         <v>206</v>
       </c>
       <c r="I188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6524,7 +6497,7 @@
         <v>206</v>
       </c>
       <c r="I189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6550,10 +6523,10 @@
         <v>73.92</v>
       </c>
       <c r="H190" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6579,10 +6552,10 @@
         <v>14.97</v>
       </c>
       <c r="H191" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6608,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6637,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6666,10 +6639,10 @@
         <v>1837.54</v>
       </c>
       <c r="H194" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6695,10 +6668,10 @@
         <v>59</v>
       </c>
       <c r="H195" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6724,10 +6697,10 @@
         <v>9.99</v>
       </c>
       <c r="H196" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -6753,10 +6726,10 @@
         <v>30</v>
       </c>
       <c r="H197" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -6782,10 +6755,10 @@
         <v>46.89</v>
       </c>
       <c r="H198" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -6811,10 +6784,10 @@
         <v>18.11</v>
       </c>
       <c r="H199" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -6840,10 +6813,10 @@
         <v>14.98</v>
       </c>
       <c r="H200" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -6869,10 +6842,10 @@
         <v>52.58</v>
       </c>
       <c r="H201" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -6898,10 +6871,10 @@
         <v>19.98</v>
       </c>
       <c r="H202" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -6927,10 +6900,10 @@
         <v>11.9</v>
       </c>
       <c r="H203" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -6956,10 +6929,10 @@
         <v>27.98</v>
       </c>
       <c r="H204" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -6988,7 +6961,7 @@
         <v>206</v>
       </c>
       <c r="I205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7014,10 +6987,10 @@
         <v>150</v>
       </c>
       <c r="H206" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7043,10 +7016,10 @@
         <v>28.94</v>
       </c>
       <c r="H207" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7072,10 +7045,10 @@
         <v>20.9</v>
       </c>
       <c r="H208" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="I208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7101,10 +7074,10 @@
         <v>93.84999999999999</v>
       </c>
       <c r="H209" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7130,10 +7103,10 @@
         <v>68.90000000000001</v>
       </c>
       <c r="H210" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7159,10 +7132,10 @@
         <v>18.95</v>
       </c>
       <c r="H211" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7188,10 +7161,10 @@
         <v>19.95</v>
       </c>
       <c r="H212" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7217,10 +7190,10 @@
         <v>15</v>
       </c>
       <c r="H213" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7246,10 +7219,10 @@
         <v>21.5</v>
       </c>
       <c r="H214" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7275,10 +7248,10 @@
         <v>10</v>
       </c>
       <c r="H215" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7304,10 +7277,10 @@
         <v>57</v>
       </c>
       <c r="H216" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7333,10 +7306,10 @@
         <v>29</v>
       </c>
       <c r="H217" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7362,10 +7335,10 @@
         <v>1517.33</v>
       </c>
       <c r="H218" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="I218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7391,10 +7364,10 @@
         <v>120</v>
       </c>
       <c r="H219" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7420,10 +7393,10 @@
         <v>5</v>
       </c>
       <c r="H220" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7449,10 +7422,10 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7478,10 +7451,10 @@
         <v>33</v>
       </c>
       <c r="H222" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7507,10 +7480,10 @@
         <v>34.2</v>
       </c>
       <c r="H223" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7536,10 +7509,10 @@
         <v>29.4</v>
       </c>
       <c r="H224" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7565,10 +7538,10 @@
         <v>13.9</v>
       </c>
       <c r="H225" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7594,10 +7567,10 @@
         <v>25.5</v>
       </c>
       <c r="H226" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7623,10 +7596,10 @@
         <v>75.08</v>
       </c>
       <c r="H227" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7652,10 +7625,10 @@
         <v>1434.02</v>
       </c>
       <c r="H228" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7681,10 +7654,10 @@
         <v>29</v>
       </c>
       <c r="H229" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7710,10 +7683,10 @@
         <v>1000</v>
       </c>
       <c r="H230" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7739,10 +7712,10 @@
         <v>31</v>
       </c>
       <c r="H231" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -7768,10 +7741,10 @@
         <v>37.44</v>
       </c>
       <c r="H232" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -7797,10 +7770,10 @@
         <v>20</v>
       </c>
       <c r="H233" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -7826,10 +7799,10 @@
         <v>56</v>
       </c>
       <c r="H234" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -7855,10 +7828,10 @@
         <v>86.72</v>
       </c>
       <c r="H235" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -7884,10 +7857,10 @@
         <v>17</v>
       </c>
       <c r="H236" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -7913,10 +7886,10 @@
         <v>5</v>
       </c>
       <c r="H237" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -7942,10 +7915,10 @@
         <v>12</v>
       </c>
       <c r="H238" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -7971,10 +7944,10 @@
         <v>195</v>
       </c>
       <c r="H239" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8000,10 +7973,10 @@
         <v>10</v>
       </c>
       <c r="H240" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8029,10 +8002,10 @@
         <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8058,10 +8031,10 @@
         <v>19.99</v>
       </c>
       <c r="H242" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8087,10 +8060,10 @@
         <v>10</v>
       </c>
       <c r="H243" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8116,10 +8089,10 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8145,10 +8118,10 @@
         <v>200</v>
       </c>
       <c r="H245" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8174,10 +8147,10 @@
         <v>37.43</v>
       </c>
       <c r="H246" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8203,10 +8176,10 @@
         <v>20</v>
       </c>
       <c r="H247" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8232,10 +8205,10 @@
         <v>61</v>
       </c>
       <c r="H248" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8261,10 +8234,10 @@
         <v>75</v>
       </c>
       <c r="H249" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8290,10 +8263,10 @@
         <v>47</v>
       </c>
       <c r="H250" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8319,10 +8292,10 @@
         <v>30</v>
       </c>
       <c r="H251" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8348,10 +8321,10 @@
         <v>35</v>
       </c>
       <c r="H252" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8377,10 +8350,10 @@
         <v>54.9</v>
       </c>
       <c r="H253" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8406,10 +8379,10 @@
         <v>154.97</v>
       </c>
       <c r="H254" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8435,10 +8408,10 @@
         <v>120.9</v>
       </c>
       <c r="H255" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8464,10 +8437,10 @@
         <v>34.9</v>
       </c>
       <c r="H256" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8493,10 +8466,10 @@
         <v>70</v>
       </c>
       <c r="H257" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -8522,10 +8495,10 @@
         <v>12</v>
       </c>
       <c r="H258" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8551,10 +8524,10 @@
         <v>28.4</v>
       </c>
       <c r="H259" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -8580,10 +8553,10 @@
         <v>60</v>
       </c>
       <c r="H260" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8609,10 +8582,10 @@
         <v>68.92</v>
       </c>
       <c r="H261" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -8638,10 +8611,10 @@
         <v>12.5</v>
       </c>
       <c r="H262" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8667,10 +8640,10 @@
         <v>10</v>
       </c>
       <c r="H263" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8696,10 +8669,10 @@
         <v>99.90000000000001</v>
       </c>
       <c r="H264" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="I264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8709,135 +8682,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>208</v>
-      </c>
-      <c r="B5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8860,7 +8705,7 @@
         <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8987,11 +8832,112 @@
         <v>-852.2399999999998</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>4467.52</v>
+      </c>
+      <c r="D10">
+        <v>7188.639999999999</v>
+      </c>
+      <c r="E10">
+        <v>2721.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>14225.71</v>
+      </c>
+      <c r="D11">
+        <v>12766.57</v>
+      </c>
+      <c r="E11">
+        <v>-1459.140000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>6979.12</v>
+      </c>
+      <c r="D12">
+        <v>9710.870000000001</v>
+      </c>
+      <c r="E12">
+        <v>2731.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>4956.59</v>
+      </c>
+      <c r="D13">
+        <v>4507.87</v>
+      </c>
+      <c r="E13">
+        <v>-448.7199999999998</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2">
+        <v>263</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e018266\OneDrive\Documentos\GitHub\MinhasFinancas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
     <sheet name="Relatório" sheetId="2" r:id="rId2"/>
     <sheet name="Classificação" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$A$1:$I$264</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="238">
   <si>
     <t>Índice</t>
   </si>
@@ -636,7 +644,88 @@
     <t>Receita</t>
   </si>
   <si>
-    <t>Sem Classificação</t>
+    <t>Passagem ônibus SP</t>
+  </si>
+  <si>
+    <t>Utensílios</t>
+  </si>
+  <si>
+    <t>Passagem avião</t>
+  </si>
+  <si>
+    <t>Muai Thay</t>
+  </si>
+  <si>
+    <t>Compras</t>
+  </si>
+  <si>
+    <t>Pagamento Cartão de Crédito</t>
+  </si>
+  <si>
+    <t>Vestuário</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Streaming</t>
+  </si>
+  <si>
+    <t>CELOS</t>
+  </si>
+  <si>
+    <t>Transferência</t>
+  </si>
+  <si>
+    <t>Estorno</t>
+  </si>
+  <si>
+    <t>Pagamentos diversos</t>
+  </si>
+  <si>
+    <t>Investimentos</t>
+  </si>
+  <si>
+    <t>Lanche</t>
+  </si>
+  <si>
+    <t>Restaurante</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Estacionamento</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>Lazer</t>
+  </si>
+  <si>
+    <t>Taxas</t>
+  </si>
+  <si>
+    <t>Serviços</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Ifood</t>
+  </si>
+  <si>
+    <t>Combustível</t>
+  </si>
+  <si>
+    <t>Uber</t>
   </si>
   <si>
     <t>Resultado</t>
@@ -654,11 +743,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +757,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -707,28 +803,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -766,9 +882,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -800,9 +916,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -834,9 +951,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1009,21 +1127,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1048,11 +1175,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="6">
         <v>45414</v>
       </c>
       <c r="C2" t="s">
@@ -1068,7 +1195,7 @@
         <v>204</v>
       </c>
       <c r="G2">
-        <v>145.58</v>
+        <v>145.58000000000001</v>
       </c>
       <c r="H2" t="s">
         <v>206</v>
@@ -1077,11 +1204,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>45414</v>
       </c>
       <c r="C3" t="s">
@@ -1100,17 +1227,17 @@
         <v>107.5</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>13</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>45414</v>
       </c>
       <c r="C4" t="s">
@@ -1135,11 +1262,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>14</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="6">
         <v>45414</v>
       </c>
       <c r="C5" t="s">
@@ -1158,17 +1285,17 @@
         <v>509.3</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="6">
         <v>45414</v>
       </c>
       <c r="C6" t="s">
@@ -1187,17 +1314,17 @@
         <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="6">
         <v>45414</v>
       </c>
       <c r="C7" t="s">
@@ -1222,11 +1349,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>17</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="6">
         <v>45414</v>
       </c>
       <c r="C8" t="s">
@@ -1251,11 +1378,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="6">
         <v>45414</v>
       </c>
       <c r="C9" t="s">
@@ -1274,17 +1401,17 @@
         <v>53.07</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>19</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="6">
         <v>45414</v>
       </c>
       <c r="C10" t="s">
@@ -1309,11 +1436,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="6">
         <v>45414</v>
       </c>
       <c r="C11" t="s">
@@ -1329,7 +1456,7 @@
         <v>204</v>
       </c>
       <c r="G11">
-        <v>80.45999999999999</v>
+        <v>80.459999999999994</v>
       </c>
       <c r="H11" t="s">
         <v>206</v>
@@ -1338,11 +1465,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>21</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="6">
         <v>45414</v>
       </c>
       <c r="C12" t="s">
@@ -1367,11 +1494,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>22</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="6">
         <v>45414</v>
       </c>
       <c r="C13" t="s">
@@ -1387,20 +1514,20 @@
         <v>204</v>
       </c>
       <c r="G13">
-        <v>137.05</v>
+        <v>137.05000000000001</v>
       </c>
       <c r="H13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="6">
         <v>45416</v>
       </c>
       <c r="C14" t="s">
@@ -1419,17 +1546,17 @@
         <v>1657.81</v>
       </c>
       <c r="H14" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="6">
         <v>45417</v>
       </c>
       <c r="C15" t="s">
@@ -1448,17 +1575,17 @@
         <v>46.66</v>
       </c>
       <c r="H15" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="6">
         <v>45417</v>
       </c>
       <c r="C16" t="s">
@@ -1477,17 +1604,17 @@
         <v>69.98</v>
       </c>
       <c r="H16" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="6">
         <v>45417</v>
       </c>
       <c r="C17" t="s">
@@ -1506,17 +1633,17 @@
         <v>118.49</v>
       </c>
       <c r="H17" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>6</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="6">
         <v>45418</v>
       </c>
       <c r="C18" t="s">
@@ -1535,17 +1662,17 @@
         <v>24.5</v>
       </c>
       <c r="H18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="6">
         <v>45421</v>
       </c>
       <c r="C19" t="s">
@@ -1564,17 +1691,17 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="6">
         <v>45421</v>
       </c>
       <c r="C20" t="s">
@@ -1593,17 +1720,17 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="6">
         <v>45425</v>
       </c>
       <c r="C21" t="s">
@@ -1622,17 +1749,17 @@
         <v>88.5</v>
       </c>
       <c r="H21" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="6">
         <v>45438</v>
       </c>
       <c r="C22" t="s">
@@ -1651,17 +1778,17 @@
         <v>7.99</v>
       </c>
       <c r="H22" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="6">
         <v>45439</v>
       </c>
       <c r="C23" t="s">
@@ -1677,20 +1804,20 @@
         <v>204</v>
       </c>
       <c r="G23">
-        <v>18.9</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H23" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="6">
         <v>45444</v>
       </c>
       <c r="C24" t="s">
@@ -1709,17 +1836,17 @@
         <v>17.45</v>
       </c>
       <c r="H24" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>115</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="6">
         <v>45447</v>
       </c>
       <c r="C25" t="s">
@@ -1738,17 +1865,17 @@
         <v>449.82</v>
       </c>
       <c r="H25" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>116</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="6">
         <v>45447</v>
       </c>
       <c r="C26" t="s">
@@ -1767,17 +1894,17 @@
         <v>2000</v>
       </c>
       <c r="H26" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>117</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="6">
         <v>45448</v>
       </c>
       <c r="C27" t="s">
@@ -1796,17 +1923,17 @@
         <v>191.66</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>118</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="6">
         <v>45449</v>
       </c>
       <c r="C28" t="s">
@@ -1825,17 +1952,17 @@
         <v>368.41</v>
       </c>
       <c r="H28" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>119</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="6">
         <v>45453</v>
       </c>
       <c r="C29" t="s">
@@ -1854,17 +1981,17 @@
         <v>1823.75</v>
       </c>
       <c r="H29" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>120</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="6">
         <v>45457</v>
       </c>
       <c r="C30" t="s">
@@ -1883,17 +2010,17 @@
         <v>35</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>121</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="6">
         <v>45457</v>
       </c>
       <c r="C31" t="s">
@@ -1912,17 +2039,17 @@
         <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>122</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="6">
         <v>45458</v>
       </c>
       <c r="C32" t="s">
@@ -1941,17 +2068,17 @@
         <v>10.56</v>
       </c>
       <c r="H32" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>123</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="6">
         <v>45458</v>
       </c>
       <c r="C33" t="s">
@@ -1970,17 +2097,17 @@
         <v>95</v>
       </c>
       <c r="H33" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>124</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="6">
         <v>45460</v>
       </c>
       <c r="C34" t="s">
@@ -1999,17 +2126,17 @@
         <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>125</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="6">
         <v>45461</v>
       </c>
       <c r="C35" t="s">
@@ -2028,17 +2155,17 @@
         <v>48</v>
       </c>
       <c r="H35" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>126</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="6">
         <v>45462</v>
       </c>
       <c r="C36" t="s">
@@ -2057,17 +2184,17 @@
         <v>560</v>
       </c>
       <c r="H36" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>127</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="6">
         <v>45463</v>
       </c>
       <c r="C37" t="s">
@@ -2086,17 +2213,17 @@
         <v>410.76</v>
       </c>
       <c r="H37" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>128</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="6">
         <v>45467</v>
       </c>
       <c r="C38" t="s">
@@ -2115,17 +2242,17 @@
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>129</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="6">
         <v>45467</v>
       </c>
       <c r="C39" t="s">
@@ -2144,17 +2271,17 @@
         <v>10.99</v>
       </c>
       <c r="H39" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>130</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="6">
         <v>45469</v>
       </c>
       <c r="C40" t="s">
@@ -2173,17 +2300,17 @@
         <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>131</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="6">
         <v>45472</v>
       </c>
       <c r="C41" t="s">
@@ -2202,17 +2329,17 @@
         <v>2000</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>132</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="6">
         <v>45472</v>
       </c>
       <c r="C42" t="s">
@@ -2231,17 +2358,17 @@
         <v>24.89</v>
       </c>
       <c r="H42" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>133</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="6">
         <v>45473</v>
       </c>
       <c r="C43" t="s">
@@ -2260,17 +2387,17 @@
         <v>27.76</v>
       </c>
       <c r="H43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>50</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="6">
         <v>45445</v>
       </c>
       <c r="C44" t="s">
@@ -2295,11 +2422,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>51</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="6">
         <v>45445</v>
       </c>
       <c r="C45" t="s">
@@ -2318,17 +2445,17 @@
         <v>118.48</v>
       </c>
       <c r="H45" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I45" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>52</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="6">
         <v>45445</v>
       </c>
       <c r="C46" t="s">
@@ -2347,17 +2474,17 @@
         <v>120</v>
       </c>
       <c r="H46" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>53</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="6">
         <v>45445</v>
       </c>
       <c r="C47" t="s">
@@ -2376,17 +2503,17 @@
         <v>24.5</v>
       </c>
       <c r="H47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>54</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="6">
         <v>45445</v>
       </c>
       <c r="C48" t="s">
@@ -2402,20 +2529,20 @@
         <v>204</v>
       </c>
       <c r="G48">
-        <v>88.48999999999999</v>
+        <v>88.49</v>
       </c>
       <c r="H48" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>55</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="6">
         <v>45445</v>
       </c>
       <c r="C49" t="s">
@@ -2434,17 +2561,17 @@
         <v>46.66</v>
       </c>
       <c r="H49" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I49" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>56</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="6">
         <v>45445</v>
       </c>
       <c r="C50" t="s">
@@ -2469,11 +2596,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="6">
         <v>45447</v>
       </c>
       <c r="C51" t="s">
@@ -2492,17 +2619,17 @@
         <v>39</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>45</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="6">
         <v>45453</v>
       </c>
       <c r="C52" t="s">
@@ -2521,17 +2648,17 @@
         <v>1823.75</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>46</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="6">
         <v>45453</v>
       </c>
       <c r="C53" t="s">
@@ -2550,17 +2677,17 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>47</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="6">
         <v>45453</v>
       </c>
       <c r="C54" t="s">
@@ -2579,17 +2706,17 @@
         <v>45.81</v>
       </c>
       <c r="H54" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>48</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="6">
         <v>45453</v>
       </c>
       <c r="C55" t="s">
@@ -2608,17 +2735,17 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I55" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>42</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="6">
         <v>45456</v>
       </c>
       <c r="C56" t="s">
@@ -2637,17 +2764,17 @@
         <v>47.47</v>
       </c>
       <c r="H56" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I56" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>43</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="6">
         <v>45456</v>
       </c>
       <c r="C57" t="s">
@@ -2666,17 +2793,17 @@
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I57" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>44</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="6">
         <v>45456</v>
       </c>
       <c r="C58" t="s">
@@ -2695,17 +2822,17 @@
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>41</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="6">
         <v>45458</v>
       </c>
       <c r="C59" t="s">
@@ -2724,17 +2851,17 @@
         <v>590</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>39</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="6">
         <v>45460</v>
       </c>
       <c r="C60" t="s">
@@ -2753,17 +2880,17 @@
         <v>98.5</v>
       </c>
       <c r="H60" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>40</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="6">
         <v>45460</v>
       </c>
       <c r="C61" t="s">
@@ -2782,17 +2909,17 @@
         <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>38</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="6">
         <v>45461</v>
       </c>
       <c r="C62" t="s">
@@ -2808,20 +2935,20 @@
         <v>204</v>
       </c>
       <c r="G62">
-        <v>33.59</v>
+        <v>33.590000000000003</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I62" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>37</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="6">
         <v>45462</v>
       </c>
       <c r="C63" t="s">
@@ -2840,17 +2967,17 @@
         <v>29.9</v>
       </c>
       <c r="H63" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>36</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="6">
         <v>45464</v>
       </c>
       <c r="C64" t="s">
@@ -2869,17 +2996,17 @@
         <v>55</v>
       </c>
       <c r="H64" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>34</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="6">
         <v>45465</v>
       </c>
       <c r="C65" t="s">
@@ -2898,17 +3025,17 @@
         <v>66</v>
       </c>
       <c r="H65" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>35</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="6">
         <v>45465</v>
       </c>
       <c r="C66" t="s">
@@ -2927,17 +3054,17 @@
         <v>55</v>
       </c>
       <c r="H66" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I66" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>32</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="6">
         <v>45466</v>
       </c>
       <c r="C67" t="s">
@@ -2956,17 +3083,17 @@
         <v>55</v>
       </c>
       <c r="H67" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>33</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="6">
         <v>45466</v>
       </c>
       <c r="C68" t="s">
@@ -2985,17 +3112,17 @@
         <v>58.9</v>
       </c>
       <c r="H68" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>31</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="6">
         <v>45468</v>
       </c>
       <c r="C69" t="s">
@@ -3014,17 +3141,17 @@
         <v>-66</v>
       </c>
       <c r="H69" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I69" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>29</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="6">
         <v>45469</v>
       </c>
       <c r="C70" t="s">
@@ -3043,17 +3170,17 @@
         <v>7.99</v>
       </c>
       <c r="H70" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>30</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="6">
         <v>45469</v>
       </c>
       <c r="C71" t="s">
@@ -3072,17 +3199,17 @@
         <v>28.53</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I71" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>28</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="6">
         <v>45471</v>
       </c>
       <c r="C72" t="s">
@@ -3101,17 +3228,17 @@
         <v>20.9</v>
       </c>
       <c r="H72" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I72" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>26</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="6">
         <v>45472</v>
       </c>
       <c r="C73" t="s">
@@ -3130,17 +3257,17 @@
         <v>57</v>
       </c>
       <c r="H73" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>27</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="6">
         <v>45472</v>
       </c>
       <c r="C74" t="s">
@@ -3159,17 +3286,17 @@
         <v>18</v>
       </c>
       <c r="H74" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>25</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="6">
         <v>45473</v>
       </c>
       <c r="C75" t="s">
@@ -3188,17 +3315,17 @@
         <v>120</v>
       </c>
       <c r="H75" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>23</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="6">
         <v>45474</v>
       </c>
       <c r="C76" t="s">
@@ -3217,17 +3344,17 @@
         <v>17.45</v>
       </c>
       <c r="H76" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I76" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>24</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="6">
         <v>45474</v>
       </c>
       <c r="C77" t="s">
@@ -3246,17 +3373,17 @@
         <v>15.95</v>
       </c>
       <c r="H77" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I77" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>134</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="6">
         <v>45474</v>
       </c>
       <c r="C78" t="s">
@@ -3275,17 +3402,17 @@
         <v>42.82</v>
       </c>
       <c r="H78" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I78" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>135</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="6">
         <v>45474</v>
       </c>
       <c r="C79" t="s">
@@ -3304,17 +3431,17 @@
         <v>3000</v>
       </c>
       <c r="H79" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I79" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>136</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="6">
         <v>45475</v>
       </c>
       <c r="C80" t="s">
@@ -3333,17 +3460,17 @@
         <v>5000</v>
       </c>
       <c r="H80" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I80" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>137</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="6">
         <v>45477</v>
       </c>
       <c r="C81" t="s">
@@ -3362,17 +3489,17 @@
         <v>900</v>
       </c>
       <c r="H81" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I81" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>138</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="6">
         <v>45477</v>
       </c>
       <c r="C82" t="s">
@@ -3391,17 +3518,17 @@
         <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="I82" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>139</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="6">
         <v>45478</v>
       </c>
       <c r="C83" t="s">
@@ -3420,17 +3547,17 @@
         <v>45.9</v>
       </c>
       <c r="H83" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>140</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="6">
         <v>45479</v>
       </c>
       <c r="C84" t="s">
@@ -3449,17 +3576,17 @@
         <v>40</v>
       </c>
       <c r="H84" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>141</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="6">
         <v>45481</v>
       </c>
       <c r="C85" t="s">
@@ -3478,17 +3605,17 @@
         <v>6997.09</v>
       </c>
       <c r="H85" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>142</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="6">
         <v>45481</v>
       </c>
       <c r="C86" t="s">
@@ -3507,17 +3634,17 @@
         <v>811.35</v>
       </c>
       <c r="H86" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>143</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="6">
         <v>45481</v>
       </c>
       <c r="C87" t="s">
@@ -3536,17 +3663,17 @@
         <v>71.5</v>
       </c>
       <c r="H87" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>144</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="6">
         <v>45482</v>
       </c>
       <c r="C88" t="s">
@@ -3565,17 +3692,17 @@
         <v>1000</v>
       </c>
       <c r="H88" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>145</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="6">
         <v>45483</v>
       </c>
       <c r="C89" t="s">
@@ -3594,17 +3721,17 @@
         <v>1937.94</v>
       </c>
       <c r="H89" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>146</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="6">
         <v>45486</v>
       </c>
       <c r="C90" t="s">
@@ -3623,17 +3750,17 @@
         <v>84.41</v>
       </c>
       <c r="H90" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I90" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>147</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="6">
         <v>45487</v>
       </c>
       <c r="C91" t="s">
@@ -3652,17 +3779,17 @@
         <v>66</v>
       </c>
       <c r="H91" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I91" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>148</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="6">
         <v>45487</v>
       </c>
       <c r="C92" t="s">
@@ -3681,17 +3808,17 @@
         <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I92" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>149</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="6">
         <v>45487</v>
       </c>
       <c r="C93" t="s">
@@ -3710,17 +3837,17 @@
         <v>26</v>
       </c>
       <c r="H93" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>150</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="6">
         <v>45487</v>
       </c>
       <c r="C94" t="s">
@@ -3739,17 +3866,17 @@
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>151</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="6">
         <v>45491</v>
       </c>
       <c r="C95" t="s">
@@ -3768,17 +3895,17 @@
         <v>500</v>
       </c>
       <c r="H95" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>152</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="6">
         <v>45491</v>
       </c>
       <c r="C96" t="s">
@@ -3797,17 +3924,17 @@
         <v>17</v>
       </c>
       <c r="H96" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I96" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>153</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="6">
         <v>45491</v>
       </c>
       <c r="C97" t="s">
@@ -3826,17 +3953,17 @@
         <v>8.5</v>
       </c>
       <c r="H97" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I97" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>154</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="6">
         <v>45492</v>
       </c>
       <c r="C98" t="s">
@@ -3855,17 +3982,17 @@
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>155</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="6">
         <v>45493</v>
       </c>
       <c r="C99" t="s">
@@ -3884,17 +4011,17 @@
         <v>25</v>
       </c>
       <c r="H99" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>156</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="6">
         <v>45497</v>
       </c>
       <c r="C100" t="s">
@@ -3913,17 +4040,17 @@
         <v>115.08</v>
       </c>
       <c r="H100" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>157</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="6">
         <v>45497</v>
       </c>
       <c r="C101" t="s">
@@ -3942,17 +4069,17 @@
         <v>29</v>
       </c>
       <c r="H101" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>158</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="6">
         <v>45498</v>
       </c>
       <c r="C102" t="s">
@@ -3971,17 +4098,17 @@
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>159</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="6">
         <v>45499</v>
       </c>
       <c r="C103" t="s">
@@ -4000,17 +4127,17 @@
         <v>80</v>
       </c>
       <c r="H103" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>160</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="6">
         <v>45499</v>
       </c>
       <c r="C104" t="s">
@@ -4029,17 +4156,17 @@
         <v>31</v>
       </c>
       <c r="H104" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>161</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="6">
         <v>45500</v>
       </c>
       <c r="C105" t="s">
@@ -4058,17 +4185,17 @@
         <v>25</v>
       </c>
       <c r="H105" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>162</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="6">
         <v>45500</v>
       </c>
       <c r="C106" t="s">
@@ -4087,17 +4214,17 @@
         <v>36</v>
       </c>
       <c r="H106" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>163</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="6">
         <v>45500</v>
       </c>
       <c r="C107" t="s">
@@ -4116,17 +4243,17 @@
         <v>10</v>
       </c>
       <c r="H107" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>164</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="6">
         <v>45500</v>
       </c>
       <c r="C108" t="s">
@@ -4145,17 +4272,17 @@
         <v>71</v>
       </c>
       <c r="H108" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>165</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="6">
         <v>45503</v>
       </c>
       <c r="C109" t="s">
@@ -4174,17 +4301,17 @@
         <v>30</v>
       </c>
       <c r="H109" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>166</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="6">
         <v>45504</v>
       </c>
       <c r="C110" t="s">
@@ -4203,17 +4330,17 @@
         <v>2000</v>
       </c>
       <c r="H110" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I110" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>79</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="6">
         <v>45475</v>
       </c>
       <c r="C111" t="s">
@@ -4238,11 +4365,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>80</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="6">
         <v>45475</v>
       </c>
       <c r="C112" t="s">
@@ -4261,17 +4388,17 @@
         <v>98.5</v>
       </c>
       <c r="H112" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>81</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="6">
         <v>45475</v>
       </c>
       <c r="C113" t="s">
@@ -4290,17 +4417,17 @@
         <v>46.66</v>
       </c>
       <c r="H113" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>82</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="6">
         <v>45475</v>
       </c>
       <c r="C114" t="s">
@@ -4319,17 +4446,17 @@
         <v>115.71</v>
       </c>
       <c r="H114" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>83</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="6">
         <v>45475</v>
       </c>
       <c r="C115" t="s">
@@ -4348,17 +4475,17 @@
         <v>120</v>
       </c>
       <c r="H115" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>84</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="6">
         <v>45475</v>
       </c>
       <c r="C116" t="s">
@@ -4377,17 +4504,17 @@
         <v>118.48</v>
       </c>
       <c r="H116" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>85</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="6">
         <v>45475</v>
       </c>
       <c r="C117" t="s">
@@ -4406,17 +4533,17 @@
         <v>45.8</v>
       </c>
       <c r="H117" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>78</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="6">
         <v>45479</v>
       </c>
       <c r="C118" t="s">
@@ -4435,17 +4562,17 @@
         <v>71</v>
       </c>
       <c r="H118" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>75</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="6">
         <v>45483</v>
       </c>
       <c r="C119" t="s">
@@ -4464,17 +4591,17 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>76</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="6">
         <v>45483</v>
       </c>
       <c r="C120" t="s">
@@ -4493,17 +4620,17 @@
         <v>1937.94</v>
       </c>
       <c r="H120" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>77</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="6">
         <v>45483</v>
       </c>
       <c r="C121" t="s">
@@ -4522,17 +4649,17 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>74</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="6">
         <v>45484</v>
       </c>
       <c r="C122" t="s">
@@ -4551,17 +4678,17 @@
         <v>112</v>
       </c>
       <c r="H122" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I122" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>73</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="6">
         <v>45487</v>
       </c>
       <c r="C123" t="s">
@@ -4577,20 +4704,20 @@
         <v>204</v>
       </c>
       <c r="G123">
-        <v>89.90000000000001</v>
+        <v>89.9</v>
       </c>
       <c r="H123" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I123" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>70</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="6">
         <v>45491</v>
       </c>
       <c r="C124" t="s">
@@ -4615,11 +4742,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>71</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="6">
         <v>45491</v>
       </c>
       <c r="C125" t="s">
@@ -4638,17 +4765,17 @@
         <v>12</v>
       </c>
       <c r="H125" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I125" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>72</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="6">
         <v>45491</v>
       </c>
       <c r="C126" t="s">
@@ -4667,17 +4794,17 @@
         <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I126" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>68</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="6">
         <v>45493</v>
       </c>
       <c r="C127" t="s">
@@ -4696,17 +4823,17 @@
         <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I127" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>69</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="6">
         <v>45493</v>
       </c>
       <c r="C128" t="s">
@@ -4725,17 +4852,17 @@
         <v>60</v>
       </c>
       <c r="H128" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I128" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>67</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="6">
         <v>45495</v>
       </c>
       <c r="C129" t="s">
@@ -4754,17 +4881,17 @@
         <v>113.93</v>
       </c>
       <c r="H129" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I129" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>66</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="6">
         <v>45498</v>
       </c>
       <c r="C130" t="s">
@@ -4780,20 +4907,20 @@
         <v>204</v>
       </c>
       <c r="G130">
-        <v>79.90000000000001</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="H130" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="I130" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>63</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="6">
         <v>45500</v>
       </c>
       <c r="C131" t="s">
@@ -4812,17 +4939,17 @@
         <v>29</v>
       </c>
       <c r="H131" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I131" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>64</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="6">
         <v>45500</v>
       </c>
       <c r="C132" t="s">
@@ -4841,17 +4968,17 @@
         <v>15</v>
       </c>
       <c r="H132" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I132" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>65</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="6">
         <v>45500</v>
       </c>
       <c r="C133" t="s">
@@ -4870,17 +4997,17 @@
         <v>20.9</v>
       </c>
       <c r="H133" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I133" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>61</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="6">
         <v>45501</v>
       </c>
       <c r="C134" t="s">
@@ -4899,17 +5026,17 @@
         <v>149</v>
       </c>
       <c r="H134" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I134" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>62</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="6">
         <v>45501</v>
       </c>
       <c r="C135" t="s">
@@ -4928,17 +5055,17 @@
         <v>55</v>
       </c>
       <c r="H135" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I135" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>60</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="6">
         <v>45502</v>
       </c>
       <c r="C136" t="s">
@@ -4957,17 +5084,17 @@
         <v>103.41</v>
       </c>
       <c r="H136" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I136" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>58</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="6">
         <v>45504</v>
       </c>
       <c r="C137" t="s">
@@ -4986,17 +5113,17 @@
         <v>45</v>
       </c>
       <c r="H137" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I137" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>59</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="6">
         <v>45504</v>
       </c>
       <c r="C138" t="s">
@@ -5015,17 +5142,17 @@
         <v>117.78</v>
       </c>
       <c r="H138" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I138" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>57</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="6">
         <v>45505</v>
       </c>
       <c r="C139" t="s">
@@ -5044,17 +5171,17 @@
         <v>17.45</v>
       </c>
       <c r="H139" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I139" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>167</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="6">
         <v>45505</v>
       </c>
       <c r="C140" t="s">
@@ -5073,17 +5200,17 @@
         <v>2000</v>
       </c>
       <c r="H140" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I140" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>168</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="6">
         <v>45506</v>
       </c>
       <c r="C141" t="s">
@@ -5102,17 +5229,17 @@
         <v>34</v>
       </c>
       <c r="H141" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I141" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>169</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="6">
         <v>45507</v>
       </c>
       <c r="C142" t="s">
@@ -5131,17 +5258,17 @@
         <v>40</v>
       </c>
       <c r="H142" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I142" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>170</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="6">
         <v>45507</v>
       </c>
       <c r="C143" t="s">
@@ -5160,17 +5287,17 @@
         <v>40</v>
       </c>
       <c r="H143" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I143" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>171</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="6">
         <v>45507</v>
       </c>
       <c r="C144" t="s">
@@ -5186,20 +5313,20 @@
         <v>204</v>
       </c>
       <c r="G144">
-        <v>37.73</v>
+        <v>37.729999999999997</v>
       </c>
       <c r="H144" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I144" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>172</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="6">
         <v>45508</v>
       </c>
       <c r="C145" t="s">
@@ -5218,17 +5345,17 @@
         <v>37.78</v>
       </c>
       <c r="H145" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I145" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>173</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="6">
         <v>45510</v>
       </c>
       <c r="C146" t="s">
@@ -5247,17 +5374,17 @@
         <v>39.9</v>
       </c>
       <c r="H146" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="I146" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>174</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="6">
         <v>45511</v>
       </c>
       <c r="C147" t="s">
@@ -5276,17 +5403,17 @@
         <v>46</v>
       </c>
       <c r="H147" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I147" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>175</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="6">
         <v>45512</v>
       </c>
       <c r="C148" t="s">
@@ -5305,17 +5432,17 @@
         <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I148" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>176</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="6">
         <v>45513</v>
       </c>
       <c r="C149" t="s">
@@ -5334,17 +5461,17 @@
         <v>1837.54</v>
       </c>
       <c r="H149" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I149" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>177</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="6">
         <v>45513</v>
       </c>
       <c r="C150" t="s">
@@ -5363,17 +5490,17 @@
         <v>19.5</v>
       </c>
       <c r="H150" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I150" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>178</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="6">
         <v>45514</v>
       </c>
       <c r="C151" t="s">
@@ -5392,17 +5519,17 @@
         <v>1400</v>
       </c>
       <c r="H151" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I151" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>179</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="6">
         <v>45516</v>
       </c>
       <c r="C152" t="s">
@@ -5421,17 +5548,17 @@
         <v>632</v>
       </c>
       <c r="H152" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I152" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>180</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="6">
         <v>45516</v>
       </c>
       <c r="C153" t="s">
@@ -5450,17 +5577,17 @@
         <v>1372.93</v>
       </c>
       <c r="H153" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I153" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>181</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="6">
         <v>45517</v>
       </c>
       <c r="C154" t="s">
@@ -5479,17 +5606,17 @@
         <v>1372.93</v>
       </c>
       <c r="H154" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I154" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>182</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="6">
         <v>45518</v>
       </c>
       <c r="C155" t="s">
@@ -5508,17 +5635,17 @@
         <v>38</v>
       </c>
       <c r="H155" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I155" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>183</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="6">
         <v>45518</v>
       </c>
       <c r="C156" t="s">
@@ -5537,17 +5664,17 @@
         <v>18</v>
       </c>
       <c r="H156" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I156" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>184</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="6">
         <v>45518</v>
       </c>
       <c r="C157" t="s">
@@ -5566,17 +5693,17 @@
         <v>45.5</v>
       </c>
       <c r="H157" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="I157" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>185</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="6">
         <v>45518</v>
       </c>
       <c r="C158" t="s">
@@ -5595,17 +5722,17 @@
         <v>50</v>
       </c>
       <c r="H158" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I158" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>186</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="6">
         <v>45519</v>
       </c>
       <c r="C159" t="s">
@@ -5624,17 +5751,17 @@
         <v>57</v>
       </c>
       <c r="H159" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I159" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>187</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="6">
         <v>45519</v>
       </c>
       <c r="C160" t="s">
@@ -5653,17 +5780,17 @@
         <v>8</v>
       </c>
       <c r="H160" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I160" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>188</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="6">
         <v>45519</v>
       </c>
       <c r="C161" t="s">
@@ -5682,17 +5809,17 @@
         <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I161" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>189</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="6">
         <v>45519</v>
       </c>
       <c r="C162" t="s">
@@ -5711,17 +5838,17 @@
         <v>39</v>
       </c>
       <c r="H162" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="I162" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>190</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B163" s="6">
         <v>45519</v>
       </c>
       <c r="C163" t="s">
@@ -5740,17 +5867,17 @@
         <v>15</v>
       </c>
       <c r="H163" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I163" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>191</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B164" s="6">
         <v>45519</v>
       </c>
       <c r="C164" t="s">
@@ -5769,17 +5896,17 @@
         <v>15</v>
       </c>
       <c r="H164" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I164" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>192</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B165" s="6">
         <v>45519</v>
       </c>
       <c r="C165" t="s">
@@ -5798,17 +5925,17 @@
         <v>23</v>
       </c>
       <c r="H165" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I165" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>193</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B166" s="6">
         <v>45520</v>
       </c>
       <c r="C166" t="s">
@@ -5824,20 +5951,20 @@
         <v>204</v>
       </c>
       <c r="G166">
-        <v>76.48999999999999</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="H166" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I166" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>194</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B167" s="6">
         <v>45520</v>
       </c>
       <c r="C167" t="s">
@@ -5856,17 +5983,17 @@
         <v>12</v>
       </c>
       <c r="H167" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I167" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>195</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B168" s="6">
         <v>45520</v>
       </c>
       <c r="C168" t="s">
@@ -5885,17 +6012,17 @@
         <v>28</v>
       </c>
       <c r="H168" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I168" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>196</v>
       </c>
-      <c r="B169" s="2">
+      <c r="B169" s="6">
         <v>45520</v>
       </c>
       <c r="C169" t="s">
@@ -5914,17 +6041,17 @@
         <v>15</v>
       </c>
       <c r="H169" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I169" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>197</v>
       </c>
-      <c r="B170" s="2">
+      <c r="B170" s="6">
         <v>45520</v>
       </c>
       <c r="C170" t="s">
@@ -5943,17 +6070,17 @@
         <v>15</v>
       </c>
       <c r="H170" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I170" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>198</v>
       </c>
-      <c r="B171" s="2">
+      <c r="B171" s="6">
         <v>45520</v>
       </c>
       <c r="C171" t="s">
@@ -5972,17 +6099,17 @@
         <v>15</v>
       </c>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I171" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>199</v>
       </c>
-      <c r="B172" s="2">
+      <c r="B172" s="6">
         <v>45520</v>
       </c>
       <c r="C172" t="s">
@@ -6001,17 +6128,17 @@
         <v>15</v>
       </c>
       <c r="H172" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I172" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>200</v>
       </c>
-      <c r="B173" s="2">
+      <c r="B173" s="6">
         <v>45521</v>
       </c>
       <c r="C173" t="s">
@@ -6030,17 +6157,17 @@
         <v>10</v>
       </c>
       <c r="H173" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I173" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>201</v>
       </c>
-      <c r="B174" s="2">
+      <c r="B174" s="6">
         <v>45522</v>
       </c>
       <c r="C174" t="s">
@@ -6059,17 +6186,17 @@
         <v>5.25</v>
       </c>
       <c r="H174" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I174" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>202</v>
       </c>
-      <c r="B175" s="2">
+      <c r="B175" s="6">
         <v>45523</v>
       </c>
       <c r="C175" t="s">
@@ -6088,17 +6215,17 @@
         <v>10.59</v>
       </c>
       <c r="H175" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I175" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>203</v>
       </c>
-      <c r="B176" s="2">
+      <c r="B176" s="6">
         <v>45524</v>
       </c>
       <c r="C176" t="s">
@@ -6117,17 +6244,17 @@
         <v>68.77</v>
       </c>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I176" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>204</v>
       </c>
-      <c r="B177" s="2">
+      <c r="B177" s="6">
         <v>45525</v>
       </c>
       <c r="C177" t="s">
@@ -6146,17 +6273,17 @@
         <v>31.9</v>
       </c>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I177" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>205</v>
       </c>
-      <c r="B178" s="2">
+      <c r="B178" s="6">
         <v>45528</v>
       </c>
       <c r="C178" t="s">
@@ -6175,17 +6302,17 @@
         <v>162</v>
       </c>
       <c r="H178" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I178" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>206</v>
       </c>
-      <c r="B179" s="2">
+      <c r="B179" s="6">
         <v>45528</v>
       </c>
       <c r="C179" t="s">
@@ -6204,17 +6331,17 @@
         <v>60.7</v>
       </c>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I179" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>207</v>
       </c>
-      <c r="B180" s="2">
+      <c r="B180" s="6">
         <v>45529</v>
       </c>
       <c r="C180" t="s">
@@ -6233,17 +6360,17 @@
         <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I180" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>208</v>
       </c>
-      <c r="B181" s="2">
+      <c r="B181" s="6">
         <v>45535</v>
       </c>
       <c r="C181" t="s">
@@ -6262,17 +6389,17 @@
         <v>3000</v>
       </c>
       <c r="H181" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I181" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>209</v>
       </c>
-      <c r="B182" s="2">
+      <c r="B182" s="6">
         <v>45535</v>
       </c>
       <c r="C182" t="s">
@@ -6291,17 +6418,17 @@
         <v>20</v>
       </c>
       <c r="H182" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I182" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>210</v>
       </c>
-      <c r="B183" s="2">
+      <c r="B183" s="6">
         <v>45535</v>
       </c>
       <c r="C183" t="s">
@@ -6320,17 +6447,17 @@
         <v>22</v>
       </c>
       <c r="H183" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I183" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>211</v>
       </c>
-      <c r="B184" s="2">
+      <c r="B184" s="6">
         <v>45535</v>
       </c>
       <c r="C184" t="s">
@@ -6349,17 +6476,17 @@
         <v>30</v>
       </c>
       <c r="H184" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I184" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>110</v>
       </c>
-      <c r="B185" s="2">
+      <c r="B185" s="6">
         <v>45506</v>
       </c>
       <c r="C185" t="s">
@@ -6378,17 +6505,17 @@
         <v>103.41</v>
       </c>
       <c r="H185" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I185" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>111</v>
       </c>
-      <c r="B186" s="2">
+      <c r="B186" s="6">
         <v>45506</v>
       </c>
       <c r="C186" t="s">
@@ -6407,17 +6534,17 @@
         <v>120</v>
       </c>
       <c r="H186" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I186" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>112</v>
       </c>
-      <c r="B187" s="2">
+      <c r="B187" s="6">
         <v>45506</v>
       </c>
       <c r="C187" t="s">
@@ -6442,11 +6569,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>113</v>
       </c>
-      <c r="B188" s="2">
+      <c r="B188" s="6">
         <v>45506</v>
       </c>
       <c r="C188" t="s">
@@ -6471,11 +6598,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>114</v>
       </c>
-      <c r="B189" s="2">
+      <c r="B189" s="6">
         <v>45506</v>
       </c>
       <c r="C189" t="s">
@@ -6494,17 +6621,17 @@
         <v>117.77</v>
       </c>
       <c r="H189" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I189" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>109</v>
       </c>
-      <c r="B190" s="2">
+      <c r="B190" s="6">
         <v>45508</v>
       </c>
       <c r="C190" t="s">
@@ -6523,17 +6650,17 @@
         <v>73.92</v>
       </c>
       <c r="H190" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I190" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>108</v>
       </c>
-      <c r="B191" s="2">
+      <c r="B191" s="6">
         <v>45510</v>
       </c>
       <c r="C191" t="s">
@@ -6552,17 +6679,17 @@
         <v>14.97</v>
       </c>
       <c r="H191" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I191" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>105</v>
       </c>
-      <c r="B192" s="2">
+      <c r="B192" s="6">
         <v>45513</v>
       </c>
       <c r="C192" t="s">
@@ -6581,17 +6708,17 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I192" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>106</v>
       </c>
-      <c r="B193" s="2">
+      <c r="B193" s="6">
         <v>45513</v>
       </c>
       <c r="C193" t="s">
@@ -6610,17 +6737,17 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I193" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>107</v>
       </c>
-      <c r="B194" s="2">
+      <c r="B194" s="6">
         <v>45513</v>
       </c>
       <c r="C194" t="s">
@@ -6639,17 +6766,17 @@
         <v>1837.54</v>
       </c>
       <c r="H194" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I194" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>102</v>
       </c>
-      <c r="B195" s="2">
+      <c r="B195" s="6">
         <v>45516</v>
       </c>
       <c r="C195" t="s">
@@ -6668,17 +6795,17 @@
         <v>59</v>
       </c>
       <c r="H195" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I195" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>103</v>
       </c>
-      <c r="B196" s="2">
+      <c r="B196" s="6">
         <v>45516</v>
       </c>
       <c r="C196" t="s">
@@ -6697,17 +6824,17 @@
         <v>9.99</v>
       </c>
       <c r="H196" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I196" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>104</v>
       </c>
-      <c r="B197" s="2">
+      <c r="B197" s="6">
         <v>45516</v>
       </c>
       <c r="C197" t="s">
@@ -6726,17 +6853,17 @@
         <v>30</v>
       </c>
       <c r="H197" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I197" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>101</v>
       </c>
-      <c r="B198" s="2">
+      <c r="B198" s="6">
         <v>45519</v>
       </c>
       <c r="C198" t="s">
@@ -6755,17 +6882,17 @@
         <v>46.89</v>
       </c>
       <c r="H198" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I198" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>98</v>
       </c>
-      <c r="B199" s="2">
+      <c r="B199" s="6">
         <v>45521</v>
       </c>
       <c r="C199" t="s">
@@ -6784,17 +6911,17 @@
         <v>18.11</v>
       </c>
       <c r="H199" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I199" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>99</v>
       </c>
-      <c r="B200" s="2">
+      <c r="B200" s="6">
         <v>45521</v>
       </c>
       <c r="C200" t="s">
@@ -6813,17 +6940,17 @@
         <v>14.98</v>
       </c>
       <c r="H200" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I200" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>100</v>
       </c>
-      <c r="B201" s="2">
+      <c r="B201" s="6">
         <v>45521</v>
       </c>
       <c r="C201" t="s">
@@ -6842,17 +6969,17 @@
         <v>52.58</v>
       </c>
       <c r="H201" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I201" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>97</v>
       </c>
-      <c r="B202" s="2">
+      <c r="B202" s="6">
         <v>45524</v>
       </c>
       <c r="C202" t="s">
@@ -6871,17 +6998,17 @@
         <v>19.98</v>
       </c>
       <c r="H202" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I202" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>95</v>
       </c>
-      <c r="B203" s="2">
+      <c r="B203" s="6">
         <v>45525</v>
       </c>
       <c r="C203" t="s">
@@ -6900,17 +7027,17 @@
         <v>11.9</v>
       </c>
       <c r="H203" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I203" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>96</v>
       </c>
-      <c r="B204" s="2">
+      <c r="B204" s="6">
         <v>45525</v>
       </c>
       <c r="C204" t="s">
@@ -6929,17 +7056,17 @@
         <v>27.98</v>
       </c>
       <c r="H204" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I204" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>92</v>
       </c>
-      <c r="B205" s="2">
+      <c r="B205" s="6">
         <v>45527</v>
       </c>
       <c r="C205" t="s">
@@ -6964,11 +7091,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>93</v>
       </c>
-      <c r="B206" s="2">
+      <c r="B206" s="6">
         <v>45527</v>
       </c>
       <c r="C206" t="s">
@@ -6987,17 +7114,17 @@
         <v>150</v>
       </c>
       <c r="H206" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I206" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>94</v>
       </c>
-      <c r="B207" s="2">
+      <c r="B207" s="6">
         <v>45527</v>
       </c>
       <c r="C207" t="s">
@@ -7016,17 +7143,17 @@
         <v>28.94</v>
       </c>
       <c r="H207" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="I207" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>91</v>
       </c>
-      <c r="B208" s="2">
+      <c r="B208" s="6">
         <v>45531</v>
       </c>
       <c r="C208" t="s">
@@ -7045,17 +7172,17 @@
         <v>20.9</v>
       </c>
       <c r="H208" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I208" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>90</v>
       </c>
-      <c r="B209" s="2">
+      <c r="B209" s="6">
         <v>45534</v>
       </c>
       <c r="C209" t="s">
@@ -7071,20 +7198,20 @@
         <v>204</v>
       </c>
       <c r="G209">
-        <v>93.84999999999999</v>
+        <v>93.85</v>
       </c>
       <c r="H209" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I209" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>86</v>
       </c>
-      <c r="B210" s="2">
+      <c r="B210" s="6">
         <v>45536</v>
       </c>
       <c r="C210" t="s">
@@ -7100,20 +7227,20 @@
         <v>204</v>
       </c>
       <c r="G210">
-        <v>68.90000000000001</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="H210" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I210" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>87</v>
       </c>
-      <c r="B211" s="2">
+      <c r="B211" s="6">
         <v>45536</v>
       </c>
       <c r="C211" t="s">
@@ -7132,17 +7259,17 @@
         <v>18.95</v>
       </c>
       <c r="H211" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I211" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>88</v>
       </c>
-      <c r="B212" s="2">
+      <c r="B212" s="6">
         <v>45536</v>
       </c>
       <c r="C212" t="s">
@@ -7161,17 +7288,17 @@
         <v>19.95</v>
       </c>
       <c r="H212" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="I212" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>89</v>
       </c>
-      <c r="B213" s="2">
+      <c r="B213" s="6">
         <v>45536</v>
       </c>
       <c r="C213" t="s">
@@ -7190,17 +7317,17 @@
         <v>15</v>
       </c>
       <c r="H213" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I213" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>212</v>
       </c>
-      <c r="B214" s="2">
+      <c r="B214" s="6">
         <v>45536</v>
       </c>
       <c r="C214" t="s">
@@ -7219,17 +7346,17 @@
         <v>21.5</v>
       </c>
       <c r="H214" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I214" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>213</v>
       </c>
-      <c r="B215" s="2">
+      <c r="B215" s="6">
         <v>45536</v>
       </c>
       <c r="C215" t="s">
@@ -7248,17 +7375,17 @@
         <v>10</v>
       </c>
       <c r="H215" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I215" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>214</v>
       </c>
-      <c r="B216" s="2">
+      <c r="B216" s="6">
         <v>45537</v>
       </c>
       <c r="C216" t="s">
@@ -7277,17 +7404,17 @@
         <v>57</v>
       </c>
       <c r="H216" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I216" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>215</v>
       </c>
-      <c r="B217" s="2">
+      <c r="B217" s="6">
         <v>45538</v>
       </c>
       <c r="C217" t="s">
@@ -7306,17 +7433,17 @@
         <v>29</v>
       </c>
       <c r="H217" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I217" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>216</v>
       </c>
-      <c r="B218" s="2">
+      <c r="B218" s="6">
         <v>45538</v>
       </c>
       <c r="C218" t="s">
@@ -7335,17 +7462,17 @@
         <v>1517.33</v>
       </c>
       <c r="H218" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="I218" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>217</v>
       </c>
-      <c r="B219" s="2">
+      <c r="B219" s="6">
         <v>45539</v>
       </c>
       <c r="C219" t="s">
@@ -7364,17 +7491,17 @@
         <v>120</v>
       </c>
       <c r="H219" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I219" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>218</v>
       </c>
-      <c r="B220" s="2">
+      <c r="B220" s="6">
         <v>45539</v>
       </c>
       <c r="C220" t="s">
@@ -7393,17 +7520,17 @@
         <v>5</v>
       </c>
       <c r="H220" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I220" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>219</v>
       </c>
-      <c r="B221" s="2">
+      <c r="B221" s="6">
         <v>45540</v>
       </c>
       <c r="C221" t="s">
@@ -7422,17 +7549,17 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I221" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>220</v>
       </c>
-      <c r="B222" s="2">
+      <c r="B222" s="6">
         <v>45540</v>
       </c>
       <c r="C222" t="s">
@@ -7451,17 +7578,17 @@
         <v>33</v>
       </c>
       <c r="H222" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="I222" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>221</v>
       </c>
-      <c r="B223" s="2">
+      <c r="B223" s="6">
         <v>45541</v>
       </c>
       <c r="C223" t="s">
@@ -7477,20 +7604,20 @@
         <v>204</v>
       </c>
       <c r="G223">
-        <v>34.2</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="H223" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I223" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>222</v>
       </c>
-      <c r="B224" s="2">
+      <c r="B224" s="6">
         <v>45542</v>
       </c>
       <c r="C224" t="s">
@@ -7509,17 +7636,17 @@
         <v>29.4</v>
       </c>
       <c r="H224" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I224" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>223</v>
       </c>
-      <c r="B225" s="2">
+      <c r="B225" s="6">
         <v>45542</v>
       </c>
       <c r="C225" t="s">
@@ -7538,17 +7665,17 @@
         <v>13.9</v>
       </c>
       <c r="H225" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I225" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>224</v>
       </c>
-      <c r="B226" s="2">
+      <c r="B226" s="6">
         <v>45542</v>
       </c>
       <c r="C226" t="s">
@@ -7567,17 +7694,17 @@
         <v>25.5</v>
       </c>
       <c r="H226" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I226" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>225</v>
       </c>
-      <c r="B227" s="2">
+      <c r="B227" s="6">
         <v>45542</v>
       </c>
       <c r="C227" t="s">
@@ -7596,17 +7723,17 @@
         <v>75.08</v>
       </c>
       <c r="H227" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="I227" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>226</v>
       </c>
-      <c r="B228" s="2">
+      <c r="B228" s="6">
         <v>45544</v>
       </c>
       <c r="C228" t="s">
@@ -7625,17 +7752,17 @@
         <v>1434.02</v>
       </c>
       <c r="H228" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="I228" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>227</v>
       </c>
-      <c r="B229" s="2">
+      <c r="B229" s="6">
         <v>45544</v>
       </c>
       <c r="C229" t="s">
@@ -7654,17 +7781,17 @@
         <v>29</v>
       </c>
       <c r="H229" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I229" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>228</v>
       </c>
-      <c r="B230" s="2">
+      <c r="B230" s="6">
         <v>45544</v>
       </c>
       <c r="C230" t="s">
@@ -7683,17 +7810,17 @@
         <v>1000</v>
       </c>
       <c r="H230" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I230" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>229</v>
       </c>
-      <c r="B231" s="2">
+      <c r="B231" s="6">
         <v>45546</v>
       </c>
       <c r="C231" t="s">
@@ -7712,17 +7839,17 @@
         <v>31</v>
       </c>
       <c r="H231" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I231" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>230</v>
       </c>
-      <c r="B232" s="2">
+      <c r="B232" s="6">
         <v>45547</v>
       </c>
       <c r="C232" t="s">
@@ -7741,17 +7868,17 @@
         <v>37.44</v>
       </c>
       <c r="H232" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I232" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>231</v>
       </c>
-      <c r="B233" s="2">
+      <c r="B233" s="6">
         <v>45547</v>
       </c>
       <c r="C233" t="s">
@@ -7770,17 +7897,17 @@
         <v>20</v>
       </c>
       <c r="H233" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I233" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>232</v>
       </c>
-      <c r="B234" s="2">
+      <c r="B234" s="6">
         <v>45547</v>
       </c>
       <c r="C234" t="s">
@@ -7799,17 +7926,17 @@
         <v>56</v>
       </c>
       <c r="H234" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I234" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>233</v>
       </c>
-      <c r="B235" s="2">
+      <c r="B235" s="6">
         <v>45547</v>
       </c>
       <c r="C235" t="s">
@@ -7828,17 +7955,17 @@
         <v>86.72</v>
       </c>
       <c r="H235" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I235" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>234</v>
       </c>
-      <c r="B236" s="2">
+      <c r="B236" s="6">
         <v>45547</v>
       </c>
       <c r="C236" t="s">
@@ -7857,17 +7984,17 @@
         <v>17</v>
       </c>
       <c r="H236" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I236" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>235</v>
       </c>
-      <c r="B237" s="2">
+      <c r="B237" s="6">
         <v>45547</v>
       </c>
       <c r="C237" t="s">
@@ -7886,17 +8013,17 @@
         <v>5</v>
       </c>
       <c r="H237" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I237" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>236</v>
       </c>
-      <c r="B238" s="2">
+      <c r="B238" s="6">
         <v>45549</v>
       </c>
       <c r="C238" t="s">
@@ -7915,17 +8042,17 @@
         <v>12</v>
       </c>
       <c r="H238" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I238" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>237</v>
       </c>
-      <c r="B239" s="2">
+      <c r="B239" s="6">
         <v>45550</v>
       </c>
       <c r="C239" t="s">
@@ -7944,17 +8071,17 @@
         <v>195</v>
       </c>
       <c r="H239" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I239" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>238</v>
       </c>
-      <c r="B240" s="2">
+      <c r="B240" s="6">
         <v>45551</v>
       </c>
       <c r="C240" t="s">
@@ -7973,17 +8100,17 @@
         <v>10</v>
       </c>
       <c r="H240" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I240" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>239</v>
       </c>
-      <c r="B241" s="2">
+      <c r="B241" s="6">
         <v>45551</v>
       </c>
       <c r="C241" t="s">
@@ -8002,17 +8129,17 @@
         <v>15</v>
       </c>
       <c r="H241" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I241" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>240</v>
       </c>
-      <c r="B242" s="2">
+      <c r="B242" s="6">
         <v>45551</v>
       </c>
       <c r="C242" t="s">
@@ -8028,20 +8155,20 @@
         <v>204</v>
       </c>
       <c r="G242">
-        <v>19.99</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="H242" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I242" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>241</v>
       </c>
-      <c r="B243" s="2">
+      <c r="B243" s="6">
         <v>45552</v>
       </c>
       <c r="C243" t="s">
@@ -8060,17 +8187,17 @@
         <v>10</v>
       </c>
       <c r="H243" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I243" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>242</v>
       </c>
-      <c r="B244" s="2">
+      <c r="B244" s="6">
         <v>45554</v>
       </c>
       <c r="C244" t="s">
@@ -8089,17 +8216,17 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I244" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>243</v>
       </c>
-      <c r="B245" s="2">
+      <c r="B245" s="6">
         <v>45554</v>
       </c>
       <c r="C245" t="s">
@@ -8118,17 +8245,17 @@
         <v>200</v>
       </c>
       <c r="H245" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I245" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>244</v>
       </c>
-      <c r="B246" s="2">
+      <c r="B246" s="6">
         <v>45555</v>
       </c>
       <c r="C246" t="s">
@@ -8147,17 +8274,17 @@
         <v>37.43</v>
       </c>
       <c r="H246" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="I246" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>245</v>
       </c>
-      <c r="B247" s="2">
+      <c r="B247" s="6">
         <v>45555</v>
       </c>
       <c r="C247" t="s">
@@ -8176,17 +8303,17 @@
         <v>20</v>
       </c>
       <c r="H247" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I247" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>246</v>
       </c>
-      <c r="B248" s="2">
+      <c r="B248" s="6">
         <v>45555</v>
       </c>
       <c r="C248" t="s">
@@ -8205,17 +8332,17 @@
         <v>61</v>
       </c>
       <c r="H248" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I248" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>247</v>
       </c>
-      <c r="B249" s="2">
+      <c r="B249" s="6">
         <v>45555</v>
       </c>
       <c r="C249" t="s">
@@ -8234,17 +8361,17 @@
         <v>75</v>
       </c>
       <c r="H249" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I249" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>248</v>
       </c>
-      <c r="B250" s="2">
+      <c r="B250" s="6">
         <v>45556</v>
       </c>
       <c r="C250" t="s">
@@ -8263,17 +8390,17 @@
         <v>47</v>
       </c>
       <c r="H250" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I250" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>249</v>
       </c>
-      <c r="B251" s="2">
+      <c r="B251" s="6">
         <v>45556</v>
       </c>
       <c r="C251" t="s">
@@ -8292,17 +8419,17 @@
         <v>30</v>
       </c>
       <c r="H251" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I251" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>250</v>
       </c>
-      <c r="B252" s="2">
+      <c r="B252" s="6">
         <v>45556</v>
       </c>
       <c r="C252" t="s">
@@ -8321,17 +8448,17 @@
         <v>35</v>
       </c>
       <c r="H252" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I252" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>251</v>
       </c>
-      <c r="B253" s="2">
+      <c r="B253" s="6">
         <v>45559</v>
       </c>
       <c r="C253" t="s">
@@ -8350,17 +8477,17 @@
         <v>54.9</v>
       </c>
       <c r="H253" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="I253" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>252</v>
       </c>
-      <c r="B254" s="2">
+      <c r="B254" s="6">
         <v>45560</v>
       </c>
       <c r="C254" t="s">
@@ -8379,17 +8506,17 @@
         <v>154.97</v>
       </c>
       <c r="H254" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="I254" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>253</v>
       </c>
-      <c r="B255" s="2">
+      <c r="B255" s="6">
         <v>45560</v>
       </c>
       <c r="C255" t="s">
@@ -8408,17 +8535,17 @@
         <v>120.9</v>
       </c>
       <c r="H255" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="I255" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>254</v>
       </c>
-      <c r="B256" s="2">
+      <c r="B256" s="6">
         <v>45560</v>
       </c>
       <c r="C256" t="s">
@@ -8437,17 +8564,17 @@
         <v>34.9</v>
       </c>
       <c r="H256" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I256" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>255</v>
       </c>
-      <c r="B257" s="2">
+      <c r="B257" s="6">
         <v>45562</v>
       </c>
       <c r="C257" t="s">
@@ -8466,17 +8593,17 @@
         <v>70</v>
       </c>
       <c r="H257" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I257" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>256</v>
       </c>
-      <c r="B258" s="2">
+      <c r="B258" s="6">
         <v>45562</v>
       </c>
       <c r="C258" t="s">
@@ -8495,17 +8622,17 @@
         <v>12</v>
       </c>
       <c r="H258" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="I258" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>257</v>
       </c>
-      <c r="B259" s="2">
+      <c r="B259" s="6">
         <v>45563</v>
       </c>
       <c r="C259" t="s">
@@ -8524,17 +8651,17 @@
         <v>28.4</v>
       </c>
       <c r="H259" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I259" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>258</v>
       </c>
-      <c r="B260" s="2">
+      <c r="B260" s="6">
         <v>45563</v>
       </c>
       <c r="C260" t="s">
@@ -8553,17 +8680,17 @@
         <v>60</v>
       </c>
       <c r="H260" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="I260" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>259</v>
       </c>
-      <c r="B261" s="2">
+      <c r="B261" s="6">
         <v>45564</v>
       </c>
       <c r="C261" t="s">
@@ -8582,17 +8709,17 @@
         <v>68.92</v>
       </c>
       <c r="H261" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I261" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>260</v>
       </c>
-      <c r="B262" s="2">
+      <c r="B262" s="6">
         <v>45564</v>
       </c>
       <c r="C262" t="s">
@@ -8611,17 +8738,17 @@
         <v>12.5</v>
       </c>
       <c r="H262" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="I262" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>261</v>
       </c>
-      <c r="B263" s="2">
+      <c r="B263" s="6">
         <v>45565</v>
       </c>
       <c r="C263" t="s">
@@ -8640,17 +8767,17 @@
         <v>10</v>
       </c>
       <c r="H263" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I263" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>262</v>
       </c>
-      <c r="B264" s="2">
+      <c r="B264" s="6">
         <v>45565</v>
       </c>
       <c r="C264" t="s">
@@ -8666,32 +8793,39 @@
         <v>204</v>
       </c>
       <c r="G264">
-        <v>99.90000000000001</v>
+        <v>99.9</v>
       </c>
       <c r="H264" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="I264" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I264"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -8705,11 +8839,11 @@
         <v>205</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -8722,11 +8856,11 @@
         <v>1657.81</v>
       </c>
       <c r="E2">
-        <v>-165.9400000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+        <v>-165.94000000000011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -8740,8 +8874,8 @@
         <v>-114.1900000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
@@ -8752,11 +8886,11 @@
         <v>1937.94</v>
       </c>
       <c r="E4">
-        <v>100.4000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
+        <v>100.40000000000011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
@@ -8770,8 +8904,8 @@
         <v>403.52</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -8787,8 +8921,8 @@
         <v>2887.06</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -8802,8 +8936,8 @@
         <v>-1344.950000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
@@ -8817,8 +8951,8 @@
         <v>2631.35</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
@@ -8829,28 +8963,28 @@
         <v>2670.33</v>
       </c>
       <c r="E9">
-        <v>-852.2399999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>208</v>
+        <v>-852.23999999999978</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>4467.52</v>
+        <v>4467.5200000000004</v>
       </c>
       <c r="D10">
-        <v>7188.639999999999</v>
+        <v>7188.6399999999994</v>
       </c>
       <c r="E10">
         <v>2721.12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -8864,8 +8998,8 @@
         <v>-1459.140000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -8873,14 +9007,14 @@
         <v>6979.12</v>
       </c>
       <c r="D12">
-        <v>9710.870000000001</v>
+        <v>9710.8700000000008</v>
       </c>
       <c r="E12">
         <v>2731.75</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -8905,36 +9039,338 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2">
+        <v>48</v>
+      </c>
+      <c r="C2" s="4">
+        <v>18.250950570342209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10.266159695817491</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>9.5057034220532319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.8441064638783269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.8441064638783269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5.7034220532319404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>5.3231939163498092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4.5627376425855513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3.422053231939163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.041825095057034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3.041825095057034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.661596958174905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2.661596958174905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2.661596958174905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.901140684410646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.901140684410646</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.520912547528517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.520912547528517</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2">
-        <v>263</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.520912547528517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.140684410646388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.140684410646388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1.140684410646388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.140684410646388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.76045627376425851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.38022813688212931</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.38022813688212931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.38022813688212931</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.38022813688212931</v>
       </c>
     </row>
   </sheetData>
